--- a/input_AI변환260114.xlsx
+++ b/input_AI변환260114.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,40 +529,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>세계일보</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>與성일종 “러, 北에 로켓기술 주면? 우린 우크라에 무기 줘야”</t>
+          <t>성일종 “우크라에 무기 지원 검토”… 윤건영 “한마디로 참전선언”</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>이에 대해 윤건영 더불어민주당 의원은 "대단히 위험한 발상"이라며 "대한민국의 전쟁 참전 선언에 해당한다"고 비판했다.
-윤 의원은 성 의원 발언 뒤 이어진 인터뷰에서 "단순하게 흑백 논리로 북한과 러시아가 가까워지니까 우리가 군사 무기를 지원해야 된다는 이런 논리가 어디 있냐"며"러시아가 한국을 적대국으로 간주하게 될 것"이라고 질타했다.</t>
+          <t>미국이 대러 제재에 한국의 동참을 요구할 가능성에 대해 성 의원은 "지금 러시아는 유엔 안전보장이사회 상임이사국이다. 국제질서를 이끌어가야 되는 굉장한 책임이 있는 나라"라며 "유엔 제재를 받고 있고 국제제재를 받고 있는 북한에 대해 지금 러시아가 첨단기술에 대해서 또 북한의 무력에 대한 증강적 측면에서 지원하고 있다고 한다면 국제적인 공조가 반드시 있어야 한다"고 했다.
+이에 더불어민주당 윤건영 의원은 같은 프로그램 인터뷰에서 "대단히 위험한 발상이다. 한마디로 말하면 대한민국의 전쟁 참전선언하고 똑같은 것 아닌가"라고 비판했다. 성 의원이 관련 발언을 다른 여당 의원들이 국방위에서 할 가능성을 언급한 데 대해선 "미친 거죠"라고 했다.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>윤 의원은 성 의원 발언 뒤 이어진 인터뷰에서 "단순하게 흑백 논리로 북한과 러시아가 가까워지니까 우리가 군사 무기를 지원해야 된다는 이런 논리가 어디 있냐"며"러시아가 한국을 적대국으로 간주하게 될 것"이라고 질타했다</t>
+          <t>성 의원이 관련 발언을 다른 여당 의원들이 국방위에서 할 가능성을 언급한 데 대해선 "미친 거죠"라고 했다</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"단순하게 흑백 논리로 북한과 러시아가 가까워지니까 우리가 군사 무기를 지원해야 된다는 이런 논리가 어디 있냐"  "러시아가 한국을 적대국으로 간주하게 될 것"</t>
+          <t>"미친 거죠"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.joongang.co.kr/article/25192381</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+          <t>http://www.segye.com/content/html/2023/09/14/20230914504507.html</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -577,2627 +573,3848 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>성일종 “우크라에 무기 지원 검토”… 윤건영 “한마디로 참전선언”</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>이에 더불어민주당 윤건영 의원은 같은 프로그램 인터뷰에서 "대단히 위험한 발상이다. 한마디로 말하면 대한민국의 전쟁 참전선언하고 똑같은 것 아닌가"라고 비판했다. 성 의원이 관련 발언을 다른 여당 의원들이 국방위에서 할 가능성을 언급한 데 대해선 "미친 거죠"라고 했다.
+북·러 밀착 행보의 원인 제공은 윤석열정부가 했다고 했다. 윤 의원은 "윤석열정부가 한·미·일을 강조하고 군사 훈련하고 심지어 사실상 한·미·일 군사동맹까지 나가는 분위기를 몰아갔다"며 "북한으로서는 기댈 곳이 중국, 러시아밖에 없는 상황이 된 것"이라고 했다. 또 "중국과 러시아도 똑같이 한·미·일 공조에 대응해야 할 필요가 있기 때문에 이런 상황이 벌어지는 건데 이걸 단순히 흑백논리로 북한과 러시아가 가까워지니 우리가 군사무기를 지원해야 된다는 논리가 세상에 어딨나"라고 했다.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>윤 의원은 "윤석열정부가 한·미·일을 강조하고 군사 훈련하고 심지어 사실상 한·미·일 군사동맹까지 나가는 분위기를 몰아갔다"며 "북한으로서는 기댈 곳이 중국, 러시아밖에 없는 상황이 된 것"이라고 했다  또 "중국과 러시아도 똑같이 한·미·일 공조에 대응해야 할 필요가 있기 때문에 이런 상황이 벌어지는 건데 이걸 단순히 흑백논리로 북한과 러시아가 가까워지니 우리가 군사무기를 지원해야 된다는 논리가 세상에 어딨나"라고 했다</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>"윤석열정부가 한·미·일을 강조하고 군사 훈련하고 심지어 사실상 한·미·일 군사동맹까지 나가는 분위기를 몰아갔다"  "북한으로서는 기댈 곳이 중국, 러시아밖에 없는 상황이 된 것"  "중국과 러시아도 똑같이 한·미·일 공조에 대응해야 할 필요가 있기 때문에 이런 상황이 벌어지는 건데 이걸 단순히 흑백논리로 북한과 러시아가 가까워지니 우리가 군사무기를 지원해야 된다는 논리가 세상에 어딨나"</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/09/14/20230914504507.html</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>성일종 “우크라에 무기 지원 검토”… 윤건영 “한마디로 참전선언”</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>북·러 밀착 행보의 원인 제공은 윤석열정부가 했다고 했다. 윤 의원은 "윤석열정부가 한·미·일을 강조하고 군사 훈련하고 심지어 사실상 한·미·일 군사동맹까지 나가는 분위기를 몰아갔다"며 "북한으로서는 기댈 곳이 중국, 러시아밖에 없는 상황이 된 것"이라고 했다. 또 "중국과 러시아도 똑같이 한·미·일 공조에 대응해야 할 필요가 있기 때문에 이런 상황이 벌어지는 건데 이걸 단순히 흑백논리로 북한과 러시아가 가까워지니 우리가 군사무기를 지원해야 된다는 논리가 세상에 어딨나"라고 했다.
+윤 의원은 한국이 우크라이나에 살상 무기를 지원할 경우에 대해 "러시아는 당연히 우리나라를 적대국으로 간주하는 것"이라며 "러시아와는 노태우정부 이후 40년 우호관계를 맺어왔다. 40년 동안의 노력이 윤 정부의 편향 외교로 수포로 돌아갈 가능성이 커진 것"이라고 했다.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>윤 의원은 한국이 우크라이나에 살상 무기를 지원할 경우에 대해 "러시아는 당연히 우리나라를 적대국으로 간주하는 것"이라며 "러시아와는 노태우정부 이후 40년 우호관계를 맺어왔다. 40년 동안의 노력이 윤 정부의 편향 외교로 수포로 돌아갈 가능성이 커진 것"이라고 했다</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>"러시아는 당연히 우리나라를 적대국으로 간주하는 것"  "러시아와는 노태우정부 이후 40년 우호관계를 맺어왔다. 40년 동안의 노력이 윤 정부의 편향 외교로 수포로 돌아갈 가능성이 커진 것"</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/09/14/20230914504507.html</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>“문재인 모가지” 신원식 과거 발언에…최재성 “우익으로 기울어” 윤건영 “지명 철회해야”</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>계속해서 "내각을 쇄신하라고 했더니 더 문제 있는 인사들만 끌어모았다. 장관들에게 전사가 되라고 했다더니 전사내각을 만들려는 것이냐"며 "불통의 정부를 더욱 강화하겠다는 대통령의 오기에 기가 막힌다. 윤석열 대통령은 대한민국을 시대역행적 반공이념과 공포가 지배하는 나라로 만들려고 하느냐"고 거듭 날을 세웠다.
+같은 당 윤건영 의원도 14일 MBC 라디오 ‘김종배의 시선집중’ 인터뷰에서 "그분이 한 이야기를 들어보면 정상적인 사고를 가진 사람이라고 생각하기 어려운 것 같다"며, "지금이라도 당장 지명 철회하는 게 답"이라고 강조했다.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>같은 당 윤건영 의원도 14일 MBC 라디오 ‘김종배의 시선집중’ 인터뷰에서 "그분이 한 이야기를 들어보면 정상적인 사고를 가진 사람이라고 생각하기 어려운 것 같다"며, "지금이라도 당장 지명 철회하는 게 답"이라고 강조했다  같은 당 윤건영 의원도 14일 MBC 라디오 ‘김종배의 시선집중’ 인터뷰에서 "그분이 한 이야기를 들어보면 정상적인 사고를 가진 사람이라고 생각하기 어려운 것 같다"며, "지금이라도 당장 지명 철회하는 게 답"이라고 강조했다</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>"그분이 한 이야기를 들어보면 정상적인 사고를 가진 사람이라고 생각하기 어려운 것 같다"  "지금이라도 당장 지명 철회하는 게 답"</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/09/14/20230914503443.html</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>박광온 “국민 뜻 외면한 퇴행적 개각…인사 철회해야”</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>유인촌 문화체육관광부 장관 후보자에 대해서는 "MB 정부 때 입맛에 맞지 않는 공공기관장 사퇴를 압박하고 문화예술계 블랙리스트를 관리했다는 의혹을 받고 있다"며 "언론사 기자들에게 욕설과 삿대질을 해 구설에 오르기도 했다"고 설명했다.
 민주당 윤건영 의원도 같은 날 MBC 라디오에 출연해 신 후보자에 대해 "인사 참사라고 규정해도 저는 무방할 거라고 본다"고 말했다. 윤 의원은 "대통령에 대해서 모가지를 따는 게 시간 문제다라고 이야기했던 사람"이라며 "그분이 한 이야기를 들어보면 정상적인 사고를 가진 사람이라고 생각하기 어려운 것 같다"고 했다. 유인촌 문체부 장관에 대해서는 "(기자들한테) 막말하셨던 분 아닌가"라고 말했다.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>민주당 윤건영 의원도 같은 날 MBC 라디오에 출연해 신 후보자에 대해 "인사 참사라고 규정해도 저는 무방할 거라고 본다"고 말했다</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>"인사 참사라고 규정해도 저는 무방할 거라고 본다"</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://www.donga.com/news/Politics/article/all/20230914/121176017/2</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>20230914</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>조선일보</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>野 북·러 정상회담에 우리 정부 탓 “윤석열 대통령이 1등 공신”</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>권칠승 수석대변인도 전날 브리핑에서 "북러 정상회담을 만든 일등 공신은 윤석열 대통령"이라며 "윤석열 정부의 이념 외교, 진영 외교가 북한과 러시아의 군사적 협력을 초래한 것"이라고 했다. 이어 "윤 대통령은 정상외교 석상에서 러시아를 공개적으로 자극하여, 러시아를 북한에 급속하게 경도되도록 만들었다"며 "한미일 군사협력을 통해 동북아의 위협에 공동 대응하겠다고 했지만, 오히려 북한과 러시아의 군사협력을 부추기는 결과를 낳았다"고 했다.
-윤건영 의원은 MBC 라디오에서 "중국과 러시아도 똑같이 한미일 공조에 대응해야 될 필요가 있기 때문에 이런 상황이 벌어지는 것"이라고 했다.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>윤건영 의원은 MBC 라디오에서 "중국과 러시아도 똑같이 한미일 공조에 대응해야 될 필요가 있기 때문에 이런 상황이 벌어지는 것"이라고 했다</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>"중국과 러시아도 똑같이 한미일 공조에 대응해야 될 필요가 있기 때문에 이런 상황이 벌어지는 것"</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.chosun.com/politics/assembly/2023/09/14/ZZW4RKHAP5DD3OMU7R22ZKA3VE/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동아일보</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>박광온 “국민 뜻 외면한 퇴행적 개각…인사 철회해야”</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>유인촌 문화체육관광부 장관 후보자에 대해서는 "MB 정부 때 입맛에 맞지 않는 공공기관장 사퇴를 압박하고 문화예술계 블랙리스트를 관리했다는 의혹을 받고 있다"며 "언론사 기자들에게 욕설과 삿대질을 해 구설에 오르기도 했다"고 설명했다.
+민주당 윤건영 의원도 같은 날 MBC 라디오에 출연해 신 후보자에 대해 "인사 참사라고 규정해도 저는 무방할 거라고 본다"고 말했다. 윤 의원은 "대통령에 대해서 모가지를 따는 게 시간 문제다라고 이야기했던 사람"이라며 "그분이 한 이야기를 들어보면 정상적인 사고를 가진 사람이라고 생각하기 어려운 것 같다"고 했다. 유인촌 문체부 장관에 대해서는 "(기자들한테) 막말하셨던 분 아닌가"라고 말했다.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>윤 의원은 "대통령에 대해서 모가지를 따는 게 시간 문제다라고 이야기했던 사람"이라며 "그분이 한 이야기를 들어보면 정상적인 사고를 가진 사람이라고 생각하기 어려운 것 같다"고 했다</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>"대통령에 대해서 모가지를 따는 게 시간 문제다라고 이야기했던 사람"</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.donga.com/news/Politics/article/all/20230914/121176017/2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>20230914</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>이 와중에… 민주당 “북러 밀착은 윤석열 정부 탓”</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>박광온 민주당 원내대표는 14일 당 정책조정회의에서 "북·러 협력 강화는 윤석열 정부의 경직된 대북 정책과 균형을 잃은 외교 정책이 가져온 패착"이라며 "북한과 단절된 한·미·일 일변도의 외교 노선으로는 한반도 평화를 달성할 수 없다. 신(新)냉전 우려 속에서 대한민국의 주도권을 놓아선 안 된다"고 지적했다.
 문재인 정부 때 청와대 국정기획상황실장을 지낸 윤건영 민주당 의원도 이날 MBC 라디오에 출연해 "북·러 밀착에 대한 절반의 책임은 윤석열 정부에 있다"며 "우리 정부의 일방적 외교 정책으로 북한은 기댈 곳이 중국·러시아밖에 없는 상황이 된 것"이라고 비판했다. 윤 의원은 ‘러시아가 북한에 첨단기술을 제공할 경우 한국이 우크라이나에 무기를 지원해야 한다’는 성일종 국민의힘 의원의 주장에 대해선 "그렇게 되면 러시아가 우리나라를 적대국으로 간주할 수밖에 없다. 윤석열 정부의 ‘편향 외교’로 지난 40년 동안의 노력이 수포로 돌아가는 것"이라고 덧붙였다.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>문재인 정부 때 청와대 국정기획상황실장을 지낸 윤건영 민주당 의원도 이날 MBC 라디오에 출연해 "북·러 밀착에 대한 절반의 책임은 윤석열 정부에 있다"며 "우리 정부의 일방적 외교 정책으로 북한은 기댈 곳이 중국·러시아밖에 없는 상황이 된 것"이라고 비판했다</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>"북·러 밀착에 대한 절반의 책임은 윤석열 정부에 있다"  "우리 정부의 일방적 외교 정책으로 북한은 기댈 곳이 중국·러시아밖에 없는 상황이 된 것"</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>"북·러 밀착에 대한 절반의 책임은 윤석열 정부에 있다"</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2023091401070530173001</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>20230914</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>이종섭 사의 표명에도 미련 못 버린 野… 15일 ‘탄핵 카드’ 결론</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>민주당은 윤석열 대통령이 이 장관 사의 수용을 보류한 만큼 탄핵 추진이 법적으로 가능하다고 보고 있다. 대통령실은 안보 공백을 우려해 국방장관 후보자 인사청문회 이후까지 사표를 수리하지 않겠다고 밝혔다. 이 원내대변인은 이와 관련해 "대통령실은 이번 개각에 ‘채 상병 수사 외압’ 사건은 전혀 고려하지 않았다, 경질이 아니라고 발언했다"며 "이 장관 사의 표명에도 탄핵 여부를 논의하는 이유는 이런 대통령과 대통령실의 안이한 인식 때문"이라고 강조했다.
 민주당은 일단 이 장관에게 탄핵 사유가 있다는 데에는 공감대를 형성한 것으로 전해졌다. 민주당 윤건영 의원은 이날 MBC라디오에서 채 상병 수사 외압 의혹과 관련해 "개인적으로 (이 장관은) 탄핵을 백번도 당해야 될 사람"이라며 "국회에 나와서 위증도 하셨다"고 말했다. 그는 "의총을 두 번 정도 했는데, (이 장관) 탄핵 자체에 반대하는 분은 한 번도 본 적 없다"고도 했다. 이 원내대변인도 "이 장관에게 충분한 탄핵 사유가 존재한다고 보는 건 (의원들의) 일치된 의견"이라고 했다.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>민주당 윤건영 의원은 이날 MBC라디오에서 채 상병 수사 외압 의혹과 관련해 "개인적으로 (이 장관은) 탄핵을 백번도 당해야 될 사람"이라며 "국회에 나와서 위증도 하셨다"고 말했다</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>"개인적으로 (이 장관은) 탄핵을 백번도 당해야 될 사람"  "국회에 나와서 위증도 하셨다"</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>민주당 윤건영 의원은 이날 MBC라디오에서 채 상병 수사 외압 의혹과 관련해 "개인적으로 (이 장관은) 탄핵을 백번도 당해야 될 사람"이라며 "국회에 나와서 위증도 하셨다"고 말했다  그는 "의총을 두 번 정도 했는데, (이 장관) 탄핵 자체에 반대하는 분은 한 번도 본 적 없다"고도 했다</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>"개인적으로 (이 장관은) 탄핵을 백번도 당해야 될 사람"  "국회에 나와서 위증도 하셨다"  "의총을 두 번 정도 했는데, (이 장관) 탄핵 자체에 반대하는 분은 한 번도 본 적 없다"</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2023/09/14/20230914515930.html</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>20230919</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>“세상이 어느때인데”...돈봉투 자백한 윤관석, 野의 감싸기 돌아보니</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>권칠승 민주당 수석대변인도 "국면 전환용 기획 수사일 가능성이 크다고 본다"고 했다.
 윤건영 민주당 의원도 지난 4월 라디오 인터뷰에서 "전당대회에서 그럴 리는 없을 것 같다"며 "돈 봉투가 돌아다니고 지금 세상이 어느 때인데"라고 했다.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>윤건영 민주당 의원도 지난 4월 라디오 인터뷰에서 "전당대회에서 그럴 리는 없을 것 같다"며 "돈 봉투가 돌아다니고 지금 세상이 어느 때인데"라고 했다</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>"전당대회에서 그럴 리는 없을 것 같다"  "돈 봉투가 돌아다니고 지금 세상이 어느 때인데"</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://www.chosun.com/politics/politics_general/2023/09/19/CWLD5N7KYVDUXOS53DTKYE2Z7I/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>조선일보</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>“세상이 어느때인데”...돈봉투 자백한 윤관석, 野의 감싸기 돌아보니</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>한편 윤관석 의원 측은 그간 검찰 조사 과정에서 혐의를 전면 부인했는데 재판을 시작하면서 입장을 바꿨다. 다만 윤 의원은 봉투당 300만원씩 6000만원을 받았다는 기소 내용과는 달리 봉투당 100만원씩 2000만원을 받았다고 주장했다.
+윤 의원은 2000만원을 받았다고 주장했지만, 송영길 전 대표 보좌관 출신 박용수씨 변호인이 최근 법정에서 "윤 의원에게 6000만원을 전달했다"고 밝힌 것과 안 맞는다. 검찰은 윤 의원이 당시 민주당 의원 19명에게 봉투에 300만원씩 담아 건넸다고 보고 수사 중이다.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>윤 의원은 2000만원을 받았다고 주장했지만, 송영길 전 대표 보좌관 출신 박용수씨 변호인이 최근 법정에서 "윤 의원에게 6000만원을 전달했다"고 밝힌 것과 안 맞는다  윤 의원은 2000만원을 받았다고 주장했지만, 송영길 전 대표 보좌관 출신 박용수씨 변호인이 최근 법정에서 "윤 의원에게 6000만원을 전달했다"고 밝힌 것과 안 맞는다</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>"윤 의원에게 6000만원을 전달했다"</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.chosun.com/politics/politics_general/2023/09/19/CWLD5N7KYVDUXOS53DTKYE2Z7I/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>20230920</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>국방부 “北, 9·19 합의 때 공대지 무기 사격훈련 금지도 요구”</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>그러나 문재인 전 대통령은 이날 여의도 63빌딩에서 열린 9·19 합의 5주년 행사에 참석해 "‘안보는 보수 정부가 잘한다’, ‘경제는 보수 정부가 낫다’는 조작된 신화에서 이제는 벗어날 때가 됐다"며 "파탄 난 지금의 남북 관계를 생각하면 안타깝고 착잡하기 짝이 없다"고 했다. 그러면서 군사 합의 폐기 주장에 대해 "남북 관계가 다시 파탄을 맞고 있는 지금도 남북 군사 합의는 남북 군사 충돌을 막는 최후의 안전핀 역할을 하고 있다"며 "군사 합의 폐기는 최후의 안전핀을 제거하는 무책임한 일이 될 것"이라고 했다.
+이날 행사에 참석한 최종건 전 외교부 1차관은 "이 합의 덕에 접경지의 군사적 긴장이 완화됐다"고 했고, 민주당 윤건영 의원은 "합의는 사실상 최초의 실질적 (남북) 군축의 시작"이라고 했다.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>이날 행사에 참석한 최종건 전 외교부 1차관은 "이 합의 덕에 접경지의 군사적 긴장이 완화됐다"고 했고, 민주당 윤건영 의원은 "합의는 사실상 최초의 실질적 (남북) 군축의 시작"이라고 했다</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>"합의는 사실상 최초의 실질적 (남북) 군축의 시작"</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.chosun.com/politics/diplomacy-defense/2023/09/20/DI2NRLLUEBDNLCXEZSVTVNLOPA/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20230920</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>조선일보</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>“정치 생명 끊겠다”더니… 개딸들, ‘李 체포안 살생부’ 만들었다</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>올라온 게시물을 보면, 부결 의사를 밝혔다는 ‘증거 사진’과 함께 의원의 이름과 지역구를 소개하고 있다. 언론 인터뷰나 소셜미디어를 통해 이 대표 체포동의안 부결에 찬성한다고 이미 밝혔거나, 지지자들이 보낸 ‘부결 촉구’ 문자메시지나 전화통화에 직접 답변을 남긴 것을 근거로 삼았다.
 예컨대, 서울 영등포을이 지역구인 김민석 의원은 ‘용인시을 권리당원’이라고 스스로 밝힌 시민이 "민주당은 검찰 독재에 대해 항거의 뜻으로 부당한 체포영장은 부결을 당론으로 해야 한다"고 보낸 문자메시지에, "넵 알겠습니다! 환절기에 건강 유의하십시오"라고 답변했다. 윤건영 의원은 "위기일수록 당을 중심으로 단합된 힘으로 뭉쳐 싸워야 합니다. 문자주셔서 고맙습니다"라고 답변했다.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>윤건영 의원은 "위기일수록 당을 중심으로 단합된 힘으로 뭉쳐 싸워야 합니다. 문자주셔서 고맙습니다"라고 답변했다</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>"위기일수록 당을 중심으로 단합된 힘으로 뭉쳐 싸워야 합니다. 문자주셔서 고맙습니다"</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://www.chosun.com/politics/politics_general/2023/09/20/OYUE2VTVAFDX5BQXC2KM6UXVPE/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>20230920</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>“정치 생명 끊겠다”더니… 개딸들, ‘李 체포안 살생부’ 만들었다</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>예컨대, 서울 영등포을이 지역구인 김민석 의원은 ‘용인시을 권리당원’이라고 스스로 밝힌 시민이 "민주당은 검찰 독재에 대해 항거의 뜻으로 부당한 체포영장은 부결을 당론으로 해야 한다"고 보낸 문자메시지에, "넵 알겠습니다! 환절기에 건강 유의하십시오"라고 답변했다. 윤건영 의원은 "위기일수록 당을 중심으로 단합된 힘으로 뭉쳐 싸워야 합니다. 문자주셔서 고맙습니다"라고 답변했다.
 현재는 당적이 민주당이 아닌 의원에게도 ‘답변’을 받아 공유했다. 무소속 윤미향 의원이다. 윤 의원은 한 민주당 지지자가 텔레그램으로 "체포동의안에 부결 꼭 부탁드립니다. 쓰러져서 병원에 계신 분이 도주의 위험이 있진 않잖아요. 꼭 부결 부탁드립니다"라고 보낸 메시지에 이렇게 답했다. "아이고... 저한테는 이런 메시지 안 보내셔도 됩니다. 고생 많으시네요." "저야 당연히 부결이죠! 의원들께 제 의사도 표명하고 있습니다." 무소속 김남국 의원이 "이 대표를 중심으로 똘똘 뭉쳐서 폭주하는 정권을 멈춰세우겠다"고 한 것도 보인다.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>윤 의원은 한 민주당 지지자가 텔레그램으로 "체포동의안에 부결 꼭 부탁드립니다. 쓰러져서 병원에 계신 분이 도주의 위험이 있진 않잖아요. 꼭 부결 부탁드립니다"라고 보낸 메시지에 이렇게 답했다</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>"체포동의안에 부결 꼭 부탁드립니다. 쓰러져서 병원에 계신 분이 도주의 위험이 있진 않잖아요. 꼭 부결 부탁드립니다"</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.chosun.com/politics/politics_general/2023/09/20/OYUE2VTVAFDX5BQXC2KM6UXVPE/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20230920</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>조선일보</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>“정치 생명 끊겠다”더니… 개딸들, ‘李 체포안 살생부’ 만들었다</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>예컨대, 서울 영등포을이 지역구인 김민석 의원은 ‘용인시을 권리당원’이라고 스스로 밝힌 시민이 "민주당은 검찰 독재에 대해 항거의 뜻으로 부당한 체포영장은 부결을 당론으로 해야 한다"고 보낸 문자메시지에, "넵 알겠습니다! 환절기에 건강 유의하십시오"라고 답변했다. 윤건영 의원은 "위기일수록 당을 중심으로 단합된 힘으로 뭉쳐 싸워야 합니다. 문자주셔서 고맙습니다"라고 답변했다.
+현재는 당적이 민주당이 아닌 의원에게도 ‘답변’을 받아 공유했다. 무소속 윤미향 의원이다. 윤 의원은 한 민주당 지지자가 텔레그램으로 "체포동의안에 부결 꼭 부탁드립니다. 쓰러져서 병원에 계신 분이 도주의 위험이 있진 않잖아요. 꼭 부결 부탁드립니다"라고 보낸 메시지에 이렇게 답했다. "아이고... 저한테는 이런 메시지 안 보내셔도 됩니다. 고생 많으시네요." "저야 당연히 부결이죠! 의원들께 제 의사도 표명하고 있습니다." 무소속 김남국 의원이 "이 대표를 중심으로 똘똘 뭉쳐서 폭주하는 정권을 멈춰세우겠다"고 한 것도 보인다.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>"아이고... 저한테는 이런 메시지 안 보내셔도 됩니다. 고생 많으시네요." "저야 당연히 부결이죠! 의원들께 제 의사도 표명하고 있습니다." 무소속 김남국 의원이 "이 대표를 중심으로 똘똘 뭉쳐서 폭주하는 정권을 멈춰세우겠다"고 한 것도 보인다</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>"아이고... 저한테는 이런 메시지 안 보내셔도 됩니다. 고생 많으시네요."  "저야 당연히 부결이죠! 의원들께 제 의사도 표명하고 있습니다."</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>"아이고... 저한테는 이런 메시지 안 보내셔도 됩니다. 고생 많으시네요."  "저야 당연히 부결이죠! 의원들께 제 의사도 표명하고 있습니다."  "이 대표를 중심으로 똘똘 뭉쳐서 폭주하는 정권을 멈춰세우겠다"</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://www.chosun.com/politics/politics_general/2023/09/20/OYUE2VTVAFDX5BQXC2KM6UXVPE/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>20230920</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>“‘잊히고 싶다’던 文, 불러낸 건 윤석열 정부”…윤건영 민주당 의원 주장</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>문재인 정부 청와대 국정상황실장을 지낸 윤건영 더불어민주당 의원은 20일 "(문 전 대통령을) 불러낸 건 국민의힘과 윤석열 정부"라고 주장했다.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>문재인 정부 청와대 국정상황실장을 지낸 윤건영 더불어민주당 의원은 20일 "(문 전 대통령을) 불러낸 건 국민의힘과 윤석열 정부"라고 주장했다</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>"(문 전 대통령을) 불러낸 건 국민의힘과 윤석열 정부"</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2023092001039910120008</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20230920</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>“‘잊히고 싶다’던 文, 불러낸 건 윤석열 정부”…윤건영 민주당 의원 주장</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>문재인 정부 청와대 국정상황실장을 지낸 윤건영 더불어민주당 의원은 20일 "(문 전 대통령을) 불러낸 건 국민의힘과 윤석열 정부"라고 주장했다.
+윤 의원은 이날 오전 MBC 라디오 ‘김종배의 시선집중’에 출연해 "잊히고 싶고 가만히 계신 분을 누가 불러내나"라며 이같이 밝혔다. 그는 "(문재인 정부 시절) 정책실장 4명을 조사하겠다라고 하고, 비서실장 구속시키려고 하고, 안보실장 구속시켰고, 장·차관 수십 명을 조사하고 있고, 영장을 쳤고, 구속되고, 이런 상황"이라고 부연했다. 서훈 전 청와대 국가안보실장이 ‘해양수산부 공무원 서해 피격 사건’ 은폐 혐의로 구속되는 등 전 정권 인사들이 전방위적으로 수사를 받는 것을 지적한 말로 풀이된다.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>윤 의원은 이날 오전 MBC 라디오 ‘김종배의 시선집중’에 출연해 "잊히고 싶고 가만히 계신 분을 누가 불러내나"라며 이같이 밝혔다  그는 "(문재인 정부 시절) 정책실장 4명을 조사하겠다라고 하고, 비서실장 구속시키려고 하고, 안보실장 구속시켰고, 장·차관 수십 명을 조사하고 있고, 영장을 쳤고, 구속되고, 이런 상황"이라고 부연했다</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>"잊히고 싶고 가만히 계신 분을 누가 불러내나"  "(문재인 정부 시절) 정책실장 4명을 조사하겠다라고 하고, 비서실장 구속시키려고 하고, 안보실장 구속시켰고, 장·차관 수십 명을 조사하고 있고, 영장을 쳤고, 구속되고, 이런 상황"</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2023092001039910120008</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20230920</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>“‘잊히고 싶다’던 文, 불러낸 건 윤석열 정부”…윤건영 민주당 의원 주장</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>윤 의원은 이날 오전 MBC 라디오 ‘김종배의 시선집중’에 출연해 "잊히고 싶고 가만히 계신 분을 누가 불러내나"라며 이같이 밝혔다. 그는 "(문재인 정부 시절) 정책실장 4명을 조사하겠다라고 하고, 비서실장 구속시키려고 하고, 안보실장 구속시켰고, 장·차관 수십 명을 조사하고 있고, 영장을 쳤고, 구속되고, 이런 상황"이라고 부연했다. 서훈 전 청와대 국가안보실장이 ‘해양수산부 공무원 서해 피격 사건’ 은폐 혐의로 구속되는 등 전 정권 인사들이 전방위적으로 수사를 받는 것을 지적한 말로 풀이된다.
+윤 의원은 "남북관계를 둘러싼 한반도의 평화에 위기가 오는 작금의 상황에서 국가 원로로서 전직 대통령으로서 그냥 가만히 계시는 게 맞나"라고 되물었다. 문 전 대통령은 전날 ‘9·19 평화공동선언 5주년 기념식’에 참석해 "‘안보는 보수 정부가 잘한다’, ‘경제는 보수 정부가 낫다’는 조작된 신화에서 이제는 벗어날 때가 됐다"고 말했다. 기념식 참석 전에는 서울 중랑구 녹색병원을 찾아 이재명 민주당 대표의 단식을 만류했다.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>윤 의원은 "남북관계를 둘러싼 한반도의 평화에 위기가 오는 작금의 상황에서 국가 원로로서 전직 대통령으로서 그냥 가만히 계시는 게 맞나"라고 되물었다</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>"남북관계를 둘러싼 한반도의 평화에 위기가 오는 작금의 상황에서 국가 원로로서 전직 대통령으로서 그냥 가만히 계시는 게 맞나"</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2023092001039910120008</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20230920</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>“‘잊히고 싶다’던 文, 불러낸 건 윤석열 정부”…윤건영 민주당 의원 주장</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>윤 의원은 "남북관계를 둘러싼 한반도의 평화에 위기가 오는 작금의 상황에서 국가 원로로서 전직 대통령으로서 그냥 가만히 계시는 게 맞나"라고 되물었다. 문 전 대통령은 전날 ‘9·19 평화공동선언 5주년 기념식’에 참석해 "‘안보는 보수 정부가 잘한다’, ‘경제는 보수 정부가 낫다’는 조작된 신화에서 이제는 벗어날 때가 됐다"고 말했다. 기념식 참석 전에는 서울 중랑구 녹색병원을 찾아 이재명 민주당 대표의 단식을 만류했다.
+이 대표를 찾은 건 문 전 대통령 뜻이라고 전했다. 윤 의원은 "일부 참모들이 이 대표 단식장에 가시는 게 정치 일선에 나서는 걸로 비치고, 현 정부가 사사건건 트집을 잡고 있는 상황이라 부정적인 의견을 제시하기도 했다"며 "최종 결정은 문 전 대통령께서 하셨고, 그런 우려를 감당하더라도 단식 중단이 지금은 중요한 것 같다고 판단하신 것 같다"고 말했다.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>윤 의원은 "일부 참모들이 이 대표 단식장에 가시는 게 정치 일선에 나서는 걸로 비치고, 현 정부가 사사건건 트집을 잡고 있는 상황이라 부정적인 의견을 제시하기도 했다"며 "최종 결정은 문 전 대통령께서 하셨고, 그런 우려를 감당하더라도 단식 중단이 지금은 중요한 것 같다고 판단하신 것 같다"고 말했다</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>"일부 참모들이 이 대표 단식장에 가시는 게 정치 일선에 나서는 걸로 비치고, 현 정부가 사사건건 트집을 잡고 있는 상황이라 부정적인 의견을 제시하기도 했다"  "최종 결정은 문 전 대통령께서 하셨고, 그런 우려를 감당하더라도 단식 중단이 지금은 중요한 것 같다고 판단하신 것 같다"</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2023092001039910120008</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20230920</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>“‘잊히고 싶다’던 文, 불러낸 건 윤석열 정부”…윤건영 민주당 의원 주장</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>이 대표를 찾은 건 문 전 대통령 뜻이라고 전했다. 윤 의원은 "일부 참모들이 이 대표 단식장에 가시는 게 정치 일선에 나서는 걸로 비치고, 현 정부가 사사건건 트집을 잡고 있는 상황이라 부정적인 의견을 제시하기도 했다"며 "최종 결정은 문 전 대통령께서 하셨고, 그런 우려를 감당하더라도 단식 중단이 지금은 중요한 것 같다고 판단하신 것 같다"고 말했다.
+윤 의원은 "이 대표는 이런 상황을 초래한 것에 대해 죄송하다는 표현을 많이 썼다"고 전했다. 또 문 전 대통령과 이 대표 대화를 비공개한 것과 관련해서는 "비밀스러운 내용이 있어서가 아니라 단식 중단을 권유하고 비슷한 말씀이 계속 반복돼 세부적인 내용은 공개하지 않기로 했다"고 말했다.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>윤 의원은 "이 대표는 이런 상황을 초래한 것에 대해 죄송하다는 표현을 많이 썼다"고 전했다  또 문 전 대통령과 이 대표 대화를 비공개한 것과 관련해서는 "비밀스러운 내용이 있어서가 아니라 단식 중단을 권유하고 비슷한 말씀이 계속 반복돼 세부적인 내용은 공개하지 않기로 했다"고 말했다</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>"이 대표는 이런 상황을 초래한 것에 대해 죄송하다는 표현을 많이 썼다"  "비밀스러운 내용이 있어서가 아니라 단식 중단을 권유하고 비슷한 말씀이 계속 반복돼 세부적인 내용은 공개하지 않기로 했다"</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2023092001039910120008</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20230921</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>‘제가 윤석열 키웠다’는 文의 사과문은 알고 보니 ‘가상’…윤건영 “文과 관련 없다”</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>작성자가 누구인지 알려지지 않은 채 트위터 등에서 글이 퍼지고 급기야 ‘정말 문재인 전 대통령이 썼느냐’ 등 반응까지 나오자, 윤 의원이 게시물과 문 전 대통령의 연관성을 직접 끊어낸 것으로 보인다. 그리고는 윤석열 정부를 향한 분노가 이러한 가상의 사과문으로 이어졌다고도 윤 의원은 봤다.
+윤 의원은 "다만, 그 마음이 윤석열 정부가 아니라 함께 싸우고 있는 옆 사람에게 상처가 되고 있는 건 아닌지 헤아려 주시기 부탁하고 싶다"는 말을 덧붙였다.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>윤 의원은 "다만, 그 마음이 윤석열 정부가 아니라 함께 싸우고 있는 옆 사람에게 상처가 되고 있는 건 아닌지 헤아려 주시기 부탁하고 싶다"는 말을 덧붙였다</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>"다만, 그 마음이 윤석열 정부가 아니라 함께 싸우고 있는 옆 사람에게 상처가 되고 있는 건 아닌지 헤아려 주시기 부탁하고 싶다"</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/09/21/20230921511046.html</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>20230930</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>"문재인 모가지 따는 건 시간문제" 신원식 사과…또다시 소환된 文</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>또 최근 박민식 국가보훈부 장관을 사자명예훼손 혐의로 고소했다. 사건의 발단은 박 장관이 국회 정무위원회 전체회의에서 "백선엽이 스물몇 살 때 친일파였다고 한다면, 문 전 대통령 부친인 문용형 그분도 당시 흥남시 농업계장을 했는데 친일파가 아니냐"고 한 것이다. 일제강점기 간도특설대에서 복무한 백선엽 장군이 친일파가 아니라는 취지로 주장하는 과정에서 나온 말이었다.
 이에 대해 문재인 정부 청와대 국정상황실장 출신인 윤건영 더불어민주당 의원은 브리핑을 열고 "문 전 대통령의 부친이 흥남시청 농업계장을 한 것은 일제 치하가 아니라 해방 후의 일"이라며 "박 장관의 주장은 완벽한 거짓"이라고 했다.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>이에 대해 문재인 정부 청와대 국정상황실장 출신인 윤건영 더불어민주당 의원은 브리핑을 열고 "문 전 대통령의 부친이 흥남시청 농업계장을 한 것은 일제 치하가 아니라 해방 후의 일"이라며 "박 장관의 주장은 완벽한 거짓"이라고 했다</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>"문 전 대통령의 부친이 흥남시청 농업계장을 한 것은 일제 치하가 아니라 해방 후의 일"  "박 장관의 주장은 완벽한 거짓"</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2023/09/30/20230930510099.html</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20231006</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>성차별 채용공고, 3년간 2268건 적발…알바천국 800건 1위 ‘불명예’</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>성차별 채용공고 적발 건수는 매년 증가하고 있지만, 경고 조치가 대부분을 차지해 실효성 있는 처벌로 이어지지 못한다는 지적이 나온다. 고용부의 위반 심사 기간이 통상 한 달가량 소요되는데, 이 기간 동안 채용 절차가 마무리되는 경우가 많기 때문이다.
+윤 의원은 "성차별 채용공고를 근절하기 위해서는 보다 강력한 처벌과 함께 예방책을 마련해야 한다"고 말했다.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>윤 의원은 "성차별 채용공고를 근절하기 위해서는 보다 강력한 처벌과 함께 예방책을 마련해야 한다"고 말했다</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>"성차별 채용공고를 근절하기 위해서는 보다 강력한 처벌과 함께 예방책을 마련해야 한다"</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/10/06/20231006512064.html</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>20231011</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>환노위 국감서도 계속된 일본 오염수 공방… '과학적인 절차로 문제없어' [오늘의 정책 이슈]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>환경부는 HD현대오일뱅크에 총 1509억원의 과징금 부과를 검찰 수사 전 통지했는데 자진신고 감면 10%, 조사협력 감면 20%, 재량 감면 20%를 적용해 1000억원 이상을 감면했다.
 이에 민주당 윤건영 의원은 "최대치를 봐준 이유가 무엇이냐"고 물었고 한 장관은 "과징금심의위원회가 관련 기준에 따라 했으며 특정기업에 대한 특혜는 없었다"고 답했다.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>이에 민주당 윤건영 의원은 "최대치를 봐준 이유가 무엇이냐"고 물었고 한 장관은 "과징금심의위원회가 관련 기준에 따라 했으며 특정기업에 대한 특혜는 없었다"고 답했다</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>"최대치를 봐준 이유가 무엇이냐"  "과징금심의위원회가 관련 기준에 따라 했으며 특정기업에 대한 특혜는 없었다"</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2023/10/11/20231011524822.html</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>20231012</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>힘 받은 ‘이재명 체제’… “총리 해임하라” 맹공</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>민주당이 내년 총선 중간 평가의 성격인 보선에서 승기를 잡으면서 이 대표를 중심으로 한 친명(친이재명) 체제가 더욱 공고해질 것이란 관측이 나온다. 이 대표가 당무에 복귀하게 되면 첫 과제가 지명직 최고위원 임명으로, 비명(비이재명)계를 등용하는 탕평보다는 현 친명 지도부를 크게 흔들지 않는 기조 하에서 인선을 할 가능성에 무게가 실리고 있다. 비명계 조응천 민주당 의원은 이날 CBS 라디오 인터뷰에서 "(이번 보선 승리로) 강성 지지층, 더민주전국혁신회의라고 하는 원외 그룹 그리고 단일 지도 체제, 이 세 축으로 더 가는 체제가 더 공고화될 것"이라고 말했다.
 당내에서는 보선 승리에 안주해선 안 된다는 우려 섞인 지적도 나왔다. 윤건영 민주당 의원은 이날 MBC 라디오에서 "이재명 대표 체제에서 당장은 걸림돌은 없을 것 같다"며 "다만 승리했을 때 오히려 더 잘해야 한다. ‘승자의 저주’가 닥치지 않도록 잘 살펴야 한다"고 강조했다.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>윤건영 민주당 의원은 이날 MBC 라디오에서 "이재명 대표 체제에서 당장은 걸림돌은 없을 것 같다"며 "다만 승리했을 때 오히려 더 잘해야 한다. ‘승자의 저주’가 닥치지 않도록 잘 살펴야 한다"고 강조했다</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>"이재명 대표 체제에서 당장은 걸림돌은 없을 것 같다"  "다만 승리했을 때 오히려 더 잘해야 한다. ‘승자의 저주’가 닥치지 않도록 잘 살펴야 한다"</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2023101201070330288001</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>20231012</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>‘완승’ 민주당…‘민생’ 최우선하면서 한동훈엔 파면 등 총공세</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>당내에선 이 대표가 총선 전까지 당내 화합에 힘쓸 것이라는 전망이 우세하다.
 친문(친문재인)계 핵심 윤건영 의원은 이날 MBC라디오에서 "대표가 영장 기각 후 처음 내놓는 메시지에 ‘통합’을 강조했다는 게 중요 포인트"라고 말했다.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>친문(친문재인)계 핵심 윤건영 의원은 이날 MBC라디오에서 "대표가 영장 기각 후 처음 내놓는 메시지에 ‘통합’을 강조했다는 게 중요 포인트"라고 말했다</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>"대표가 영장 기각 후 처음 내놓는 메시지에 ‘통합’을 강조했다는 게 중요 포인트"</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://news.kmib.co.kr/article/view.asp?arcid=0018757733&amp;code=61111111&amp;cp=kd</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>20231013</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>고용장관 “중대재해법 완화… 文정부 탓” 내년 50인 미만 사업장 적용은 유예 검토</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>이 장관은 ‘내년 1월 27일에 50인 미만 사업장으로 중대재해법을 예정대로 확대할 것인가’라는 진성준 민주당 의원의 질의에는 "국회에서 현실을 고려한 입법개정안이 (발의돼) 있고 신중하게 고민해야 한다는 의견이 있어 고민 중"이라며 유예 가능성을 시사했다.
 국감장에는 중대재해가 반복되고 있는 기업 대표도 줄소환돼 여야의 질타를 받았다. 윤건영 민주당 의원은 증인으로 나온 이강섭 샤니 대표가 근로자 끼임 사망사고 책임을 묻는 질의에 즉답을 피하자 "‘모든 책임은 제게 있다’고 말하는 게 정상이지 않나. 그런 식으로 대응하니 SPC가 산업재해 대명사가 된 것"이라고 했다. 이주환 국민의힘 의원은 마창민 DL이앤씨 대표와 차승열 KCC 환경안전보건위원장을 향해 "사고가 나니 책임을 회피하는 태도를 보인다"고 질책했다.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>윤건영 민주당 의원은 증인으로 나온 이강섭 샤니 대표가 근로자 끼임 사망사고 책임을 묻는 질의에 즉답을 피하자 "‘모든 책임은 제게 있다’고 말하는 게 정상이지 않나. 그런 식으로 대응하니 SPC가 산업재해 대명사가 된 것"이라고 했다</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>"‘모든 책임은 제게 있다’고 말하는 게 정상이지 않나. 그런 식으로 대응하니 SPC가 산업재해 대명사가 된 것"</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://news.kmib.co.kr/article/view.asp?arcid=0924325069&amp;code=11151100</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>20231102</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>국정원 “김정은, 팔레스타인 지원 방안 찾으라 지시 정황”</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>또한 국정원은 "대한민국을 겨냥한, 국가가 배후에 있는 해킹 공격 가운데 중국과 북한의 비율이 80% 이상을 차지한다"며 "민간 분야 침해가 급증해 공공분야의 두 배에 달한다"고 정보위에 보고했다. 북한이 국내 첨단무기 제조 업체와 조선업체를 해킹한 사실을 국정원이 확인했고, 국내 유명 포털사이트 또는 전자상거래 업체를 모방한 가짜 웹 개발 동향도 사전 포착해 선제 차단했다고 한다. 국정원은 "작년부터 올해까지 전 세계 해킹을 통해 북한이 9억2000만 달러의 금전을 탈취한 걸로 추산된다"며 "최근 국정원과 미연방수사국(FBI)이 협력해 345만 달러의 자산을 동결했다"는 사실도 설명했다.
 ◆선관위 보안점검 툴 삭제 놓고 충돌=국감에선 중앙선거관리위원회 보안점검 과정에서 국정원이 선관위 측에 보안점검 툴을 설치해 두고 완전히 삭제하지 않은 문제가 논란이 되기도 했다. 정보위 야당 간사인 윤건영 더불어민주당 의원은 "국정원에서 보안점검을 위해 84개 해킹 툴(보안점검 툴)을 심었고, 전체 다 제거했느냐고 하니 ‘아니다. 남았다. 남은 건 선관위더러 제거하라고 하고 나왔다’고 했다"고 전했다. 민주당 의원들이 "그게 말이 되느냐"고 항의하자 국정원 측은 "(툴을 찾는) 방법을 알려주고 나왔다"고 답했다고 한다. 이 문제 검증을 위해 여야와 전문가들이 참여하는 비공개 검증위원회를 설치하자는 제안에 국정원장이 동의했다고 윤 의원은 전했다.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>정보위 야당 간사인 윤건영 더불어민주당 의원은 "국정원에서 보안점검을 위해 84개 해킹 툴(보안점검 툴)을 심었고, 전체 다 제거했느냐고 하니 ‘아니다. 남았다. 남은 건 선관위더러 제거하라고 하고 나왔다’고 했다"고 전했다</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>"국정원에서 보안점검을 위해 84개 해킹 툴(보안점검 툴)을 심었고, 전체 다 제거했느냐고 하니 ‘아니다. 남았다. 남은 건 선관위더러 제거하라고 하고 나왔다’고 했다"</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25204126</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>20231102</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>국정원 “北, 러에 포탄 100만발 이상 제공”</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>이날 국감에선 국정원이 미 연방수사국(FBI)과 공조해 북한이 탈취한 가상자산 345만 달러(약 47억 원)를 동결했다고 보고했다. 정보당국 차원에서 북한의 가상자산 동결 규모를 공식 공개한 것은 처음이다. 국정원은 "북한이 국내 첨단무기 제조업체와 조선업체를 해킹했다"며 "북한이 작년부터 올해까지 전 세계 해킹을 통해 9억2000만 달러(약 1조2500억 원)의 금전을 탈취한 걸로 추산된다"고 국감에서 밝혔다. 또 북한이 대외 행보에 필요한 자금을 조달하기 위해 "올해 금괴를 밀반출한 규모가 1800여 kg, 액수로는 1억1000만 달러(약 1495억 원)에 달한다"고 했다.
 또 국정원은 최근 중국의 탈북민 강제 북송과 관련해 "중국은 지난달 9일 중국 현지에 수감 중이던 탈북민 수백 명을 북송시켰으며, 추가 북송 가능성이 있다"고 보고했다. 국회 정보위 더불어민주당 간사인 윤건영 의원은 "김규현 국정원장이 대규모 북송을 ‘사전에 인지하지 못했다’고 답했다"고 말했다.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>국회 정보위 더불어민주당 간사인 윤건영 의원은 "김규현 국정원장이 대규모 북송을 ‘사전에 인지하지 못했다’고 답했다"고 말했다</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>"김규현 국정원장이 대규모 북송을 ‘사전에 인지하지 못했다’고 답했다"</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>https://www.donga.com/news/Politics/article/all/20231102/121981423/1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>20231104</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>여권발 ‘메가서울’… 말 아끼는 이재명, 이낙연은 “무책임한 도박”</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>민주당은 여당의 메가 서울 추진에 ‘행정 대개혁’을 대안으로 제시하며 이슈 경쟁을 본격화하려 했지만 큰 관심을 끌지 못했다. 그러자 서울·김포 통합에 앞서 서울지하철 5호선 노선 연장을 추진해야 한다는 입장을 내놨다. 이재명 대표는 관련 발언을 자제하고 있다.
+이와 관련, 민주당 윤건영 의원은 전날 페이스북에 "어정쩡하게 눈치 볼 일이 아니다"라며 "신속하고 단호한 입장 정리가 필요하다"고 주장했다. 윤 의원은 메가 서울 추진에 대해 "국가 균형발전에 분명히 역행하는 일"이라며 "대한민국 전체의 중심이 수도 서울로 쏠리는 단극체제로는 장기적인 국가 발전을 이룰 수 없다"고 밝혔다.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>윤 의원은 메가 서울 추진에 대해 "국가 균형발전에 분명히 역행하는 일"이라며 "대한민국 전체의 중심이 수도 서울로 쏠리는 단극체제로는 장기적인 국가 발전을 이룰 수 없다"고 밝혔다</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>"국가 균형발전에 분명히 역행하는 일"  "대한민국 전체의 중심이 수도 서울로 쏠리는 단극체제로는 장기적인 국가 발전을 이룰 수 없다"</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/11/04/20231104509335.html</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20231104</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>여권발 ‘메가서울’… 말 아끼는 이재명, 이낙연은 “무책임한 도박”</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>이와 관련, 민주당 윤건영 의원은 전날 페이스북에 "어정쩡하게 눈치 볼 일이 아니다"라며 "신속하고 단호한 입장 정리가 필요하다"고 주장했다. 윤 의원은 메가 서울 추진에 대해 "국가 균형발전에 분명히 역행하는 일"이라며 "대한민국 전체의 중심이 수도 서울로 쏠리는 단극체제로는 장기적인 국가 발전을 이룰 수 없다"고 밝혔다.
+윤 의원은 여당을 향해 "선거 한 번 이기자고 오랫동안 지켜온 가치를 짓밟아서야 되겠나"라며 "국민의힘은 오직 이번 선거 한 번만 이기면 된다는 심보다. 대한민국의 미래도, 5000만 국민의 고른 발전도 상관없다는 식"이라고 했다.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>윤 의원은 여당을 향해 "선거 한 번 이기자고 오랫동안 지켜온 가치를 짓밟아서야 되겠나"라며 "국민의힘은 오직 이번 선거 한 번만 이기면 된다는 심보다. 대한민국의 미래도, 5000만 국민의 고른 발전도 상관없다는 식"이라고 했다</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>"선거 한 번 이기자고 오랫동안 지켜온 가치를 짓밟아서야 되겠나"  "국민의힘은 오직 이번 선거 한 번만 이기면 된다는 심보다. 대한민국의 미래도, 5000만 국민의 고른 발전도 상관없다는 식"</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/11/04/20231104509335.html</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20231104</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>김포시, ‘서울 편입’ 이슈에…野 입장은?</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>이 전 대표는 국민의힘의 편입 추진을 "위험하고 무책임한 도박"이라고 비판하면서도 "(야당이)여당의 의도에 말려들지 않겠다는 생각인지 모르지만, 그런다고 이 소동이 멎겠는가"라며 당 차원의 입장 표명을 촉구했다.
-윤건영 민주당 의원도 전날 페이스북에서 "어정쩡하게 눈치 볼 일이 아니다. 신속하고 단호한 입장 정리가 필요하다"며 "여당이 표 계산에 눈이 멀어 선거만 바라본다고 해서 민주당까지 그래서는 안 된다"고 했다.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>윤건영 민주당 의원도 전날 페이스북에서 "어정쩡하게 눈치 볼 일이 아니다. 신속하고 단호한 입장 정리가 필요하다"며 "여당이 표 계산에 눈이 멀어 선거만 바라본다고 해서 민주당까지 그래서는 안 된다"고 했다</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>"어정쩡하게 눈치 볼 일이 아니다. 신속하고 단호한 입장 정리가 필요하다"  "여당이 표 계산에 눈이 멀어 선거만 바라본다고 해서 민주당까지 그래서는 안 된다"</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+윤건영 민주당 의원도 전날 페이스북에서 "어정쩡하게 눈치 볼 일이 아니다. 신속하고 단호한 입장 정리가 필요하다"며 "여당이 표 계산에 눈이 멀어 선거만 바라본다고 해서 민주당까지 그래서는 안 된다"고 했다.
+윤 의원은 "이리저리 눈치 보다가는 게도 구럭도 다 놓친다"며 "정부·여당이 뻔뻔한 무책임의 극치로 나갈수록, 민주당은 국가 균형 발전 전략이라는 가치를 더 크게 외쳐야 한다"고 강조했다.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>윤건영 민주당 의원도 전날 페이스북에서 "어정쩡하게 눈치 볼 일이 아니다. 신속하고 단호한 입장 정리가 필요하다"며 "여당이 표 계산에 눈이 멀어 선거만 바라본다고 해서 민주당까지 그래서는 안 된다"고 했다  윤 의원은 "이리저리 눈치 보다가는 게도 구럭도 다 놓친다"며 "정부·여당이 뻔뻔한 무책임의 극치로 나갈수록, 민주당은 국가 균형 발전 전략이라는 가치를 더 크게 외쳐야 한다"고 강조했다</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>"어정쩡하게 눈치 볼 일이 아니다. 신속하고 단호한 입장 정리가 필요하다"  "여당이 표 계산에 눈이 멀어 선거만 바라본다고 해서 민주당까지 그래서는 안 된다"  "이리저리 눈치 보다가는 게도 구럭도 다 놓친다"  "정부·여당이 뻔뻔한 무책임의 극치로 나갈수록, 민주당은 국가 균형 발전 전략이라는 가치를 더 크게 외쳐야 한다"</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2023/11/04/20231104509139.html</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20231110</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>조선일보</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>검찰, ‘허위 인턴 등록’ 윤건영에 벌금 500만원 구형…“반성 기미 없어”</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>이에 윤 의원의 변호인은 "(함께 약식 기소된) 백 전 의원이 약식 명령을 받아들인 것은 울산시장 선거 개입 사건 등 다른 재판의 부담이 있었기 때문이지 혐의를 인정해서가 아니다"며 "당시 피고인은 국회의원 신분도 아니었는데 어떻게 먼저 (백원우) 의원실 인턴 채용 관련 내용을 알고 인턴 등록을 제안했겠느냐"고 반박했다.
+검은 정장 차림으로 출석한 윤 의원은 최후진술에서 "검찰의 공소사실이 내 입장과는 다른 부분이 있지만 이유여하를 막론하고 이 재판으로 재판부가 많은 시간을 쓰게 해 죄송하다"면서도 "사건 당시 나는 백 전 의원과 인턴 채용과 관련해 한 마디도 나눈 적이 없다"고 했다. 이어 "현역 재선 의원이던 백 전 의원과 연구소 기획실장이던 내가 500만원을 편취하려고 국가 상대로 사기 범행을 저지를 이유가 아무것도 없다"며 "이 사건을 객관적으로 살펴봐주시길 간곡히 부탁드린다"고 했다.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>검은 정장 차림으로 출석한 윤 의원은 최후진술에서 "검찰의 공소사실이 내 입장과는 다른 부분이 있지만 이유여하를 막론하고 이 재판으로 재판부가 많은 시간을 쓰게 해 죄송하다"면서도 "사건 당시 나는 백 전 의원과 인턴 채용과 관련해 한 마디도 나눈 적이 없다"고 했다  이어 "현역 재선 의원이던 백 전 의원과 연구소 기획실장이던 내가 500만원을 편취하려고 국가 상대로 사기 범행을 저지를 이유가 아무것도 없다"며 "이 사건을 객관적으로 살펴봐주시길 간곡히 부탁드린다"고 했다</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>"검찰의 공소사실이 내 입장과는 다른 부분이 있지만 이유여하를 막론하고 이 재판으로 재판부가 많은 시간을 쓰게 해 죄송하다"  "사건 당시 나는 백 전 의원과 인턴 채용과 관련해 한 마디도 나눈 적이 없다"  "현역 재선 의원이던 백 전 의원과 연구소 기획실장이던 내가 500만원을 편취하려고 국가 상대로 사기 범행을 저지를 이유가 아무것도 없다"  "이 사건을 객관적으로 살펴봐주시길 간곡히 부탁드린다"</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.chosun.com/national/national_general/2023/11/10/BZDZUF6OQZGCDBY3LP5C2VOVJE/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20231110</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>‘허위 인턴 등록’ 혐의 윤건영에 檢 벌금 500만원 구형…“죄질 좋지 않다”</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>윤 의원은 미래연 기획실장으로 재직하던 2011년 8월 직원 김모씨를 당시 백원우 민주당 의원실의 인턴 직원으로 허위 등록해 5개월간 급여 540여만원을 국회 사무처로부터 받게 한 혐의로 재판에 넘겨졌다. 검찰은 미래연이 직원 급여를 주지 못할 정도로 재정적 어려움을 겪자, 윤 의원이 이처럼 허위 인턴 등록으로 급여를 충당한 것으로 보고 있다.
+윤 의원은 최후 진술에서 "인턴 채용 과정에서 제가 한 일은 의원실 추천을 받아 김씨에게 (일할) 생각이 있냐고 물어본 게 전부"라며 "사건 당시 백원우와 인턴 채용 문제 관련해 단 한 마디 대화를 나눈 적이 없다"고 항변했다. 그는 "가슴에 손을 얹고 아무리 생각해봐도 백원우와 제가 공모해 국가를 상대로 500만원의 사기 범행을 저질렀다는 검찰의 주장은 도저히 받아들이기 어렵다"고 강조했다.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>윤 의원은 최후 진술에서 "인턴 채용 과정에서 제가 한 일은 의원실 추천을 받아 김씨에게 (일할) 생각이 있냐고 물어본 게 전부"라며 "사건 당시 백원우와 인턴 채용 문제 관련해 단 한 마디 대화를 나눈 적이 없다"고 항변했다  그는 "가슴에 손을 얹고 아무리 생각해봐도 백원우와 제가 공모해 국가를 상대로 500만원의 사기 범행을 저질렀다는 검찰의 주장은 도저히 받아들이기 어렵다"고 강조했다</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>"인턴 채용 과정에서 제가 한 일은 의원실 추천을 받아 김씨에게 (일할) 생각이 있냐고 물어본 게 전부"  "가슴에 손을 얹고 아무리 생각해봐도 백원우와 제가 공모해 국가를 상대로 500만원의 사기 범행을 저질렀다는 검찰의 주장은 도저히 받아들이기 어렵다"</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/11/10/20231110517260.html</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>20231122</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>文측 “법 어겼다고 법 없애나”… 민주 “북풍 정략적 악용 말아야”</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>이재명 민주당 대표는 이날 오전 최고위원회의에서 9·19 군사합의 효력 정지와 관련해선 "신중하게 논의해야 한다"는 입장을 펴면서 내년 총선을 앞둔 ‘북풍(北風)’ 우려를 제기했다. 이 대표는 "일각에선 정치적 위기에 처하고 선거 상황이 나빠지면 혹시 과거 북풍처럼 ‘군사 도발을 유도하거나 충돌을 방치하는 상황이 오지 않을까’라는 걱정을 한다"며 "정치적·정략적 목적으로 안보와 민생을 희생시키는 일은 국민과 역사가 좌시하지 않을 것"이라고 경고했다. 또 "북한의 전략 무기 도발을 효과적으로 제어할 대책을 반드시 만들어야 한다"며 "북한의 안보리 결의 위반을 강력하게 규탄한다"고 말했다. 또 "확고한 군사 대비 태세가 어느 때보다 중요하다"고 덧붙였다.
 문재인 정부 당시 청와대 국정기획상황실장을 지낸 윤건영 민주당 의원은 이날 문화일보와의 통화에서 "정찰위성 발사와 미사일 도발을 엄중히 규탄한다"면서도 "그와 별도로 9·19 군사합의는 지켜져야 한다. 남북이 합의한 사항인데 법을 어긴다고 법을 없애는 건 있을 수 없는 하책"이라고 밝혔다.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>문재인 정부 당시 청와대 국정기획상황실장을 지낸 윤건영 민주당 의원은 이날 문화일보와의 통화에서 "정찰위성 발사와 미사일 도발을 엄중히 규탄한다"면서도 "그와 별도로 9·19 군사합의는 지켜져야 한다. 남북이 합의한 사항인데 법을 어긴다고 법을 없애는 건 있을 수 없는 하책"이라고 밝혔다</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>"정찰위성 발사와 미사일 도발을 엄중히 규탄한다"  "그와 별도로 9·19 군사합의는 지켜져야 한다. 남북이 합의한 사항인데 법을 어긴다고 법을 없애는 건 있을 수 없는 하책"</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2023112201070330173001</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>20231122</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>9·19 효력정지에 野 "잘못된 처방" 與 "민주당 정신차려야"</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>그동안 민주당은 북한의 잦은 도발로 윤석열 정부에서 9ㆍ19 합의의 효력 정지나 폐기 주장이 나올 때마다 이를 우려하는 목소리를 냈다. 이 대표는 지난달 30일 최고위원회에서 "이 정부가 국지전 같은 돌발적 군사 충돌을 막는 군사합의를 파기하고 사실상 남북의 군사충돌을 방치, 또는 기대하는 것이 아닌가 하는 의심까지 들 정도"라고 했다. 지난달 11일 국회 외교통일위원회 통일부 국정감사에서도 민주당 의원들은 "충돌을 막을 수 있는 마지막 방화벽"이라며 9·19 군사합의를 유지해야 한다고 거듭 주장했다.
 그러나 북한이 국제사회에 공개적으로 약속한 일정까지 어겨가며 군사정찰위성 3차 발사 시도를 감행하자 민주당은 북한과 정부 양측을 모두 비판하는 어정쩡한 양비론으로 돌아섰다. 문재인 정부에서 청와대 국정상황실장을 지낸 윤건영 의원은 이날 페이스북에 "우리는 유엔안보리 결의안 위반에 해당하는 북측의 군사정찰위성 발사를 강력히 규탄한다"면서도 "북측의 군사정찰위성 발사와 우리의 9·19 군사합의 효력 일부 정지로 남북간의 군사적 긴장과 우발적인 군사적 충돌 가능성이 고조되고, 이는 다시 전체 군사합의 폐기로 이어질 가능성이 우려된다"고 말했다.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>문재인 정부에서 청와대 국정상황실장을 지낸 윤건영 의원은 이날 페이스북에 "우리는 유엔안보리 결의안 위반에 해당하는 북측의 군사정찰위성 발사를 강력히 규탄한다"면서도 "북측의 군사정찰위성 발사와 우리의 9·19 군사합의 효력 일부 정지로 남북간의 군사적 긴장과 우발적인 군사적 충돌 가능성이 고조되고, 이는 다시 전체 군사합의 폐기로 이어질 가능성이 우려된다"고 말했다</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>"우리는 유엔안보리 결의안 위반에 해당하는 북측의 군사정찰위성 발사를 강력히 규탄한다"  "북측의 군사정찰위성 발사와 우리의 9·19 군사합의 효력 일부 정지로 남북간의 군사적 긴장과 우발적인 군사적 충돌 가능성이 고조되고, 이는 다시 전체 군사합의 폐기로 이어질 가능성이 우려된다"</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25209259</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>20231123</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>중앙일보</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>국정원 “北 정찰위성 발사 성공…러 도움 있었을 것으로 판단”</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>최근 논란이 일었던 국정원 인사파행 관련해 언론에 보도됐던 1차장의 감찰 여부 질의도 있었다고 전했다.
+윤 의원은 "의원들 질의에 국정원 내부 감찰사안에 대해 말할 수 없다, 확인할 수 없다고 답했다. 국정원 인사파동 관련 언론플레이에 국정원 내부감찰 조사 있었는지에 대해서도 동일하게 내부 상황이므로 답변할 수 없다고 했다"고 전했다.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>윤 의원은 "의원들 질의에 국정원 내부 감찰사안에 대해 말할 수 없다, 확인할 수 없다고 답했다. 국정원 인사파동 관련 언론플레이에 국정원 내부감찰 조사 있었는지에 대해서도 동일하게 내부 상황이므로 답변할 수 없다고 했다"고 전했다</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>"의원들 질의에 국정원 내부 감찰사안에 대해 말할 수 없다, 확인할 수 없다고 답했다. 국정원 인사파동 관련 언론플레이에 국정원 내부감찰 조사 있었는지에 대해서도 동일하게 내부 상황이므로 답변할 수 없다고 했다"</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.joongang.co.kr/article/25209522</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20231123</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>중앙일보</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>국정원 “北 정찰위성 발사 성공…러 도움 있었을 것으로 판단”</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>윤 의원은 "의원들 질의에 국정원 내부 감찰사안에 대해 말할 수 없다, 확인할 수 없다고 답했다. 국정원 인사파동 관련 언론플레이에 국정원 내부감찰 조사 있었는지에 대해서도 동일하게 내부 상황이므로 답변할 수 없다고 했다"고 전했다.
+이어 "국정원장은 반복되는 인사 관련 언론 보도들에 대해 사실 관계 여부를 떠나 유감이라는 답변도 했다"고 덧붙였다</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>이어 "국정원장은 반복되는 인사 관련 언론 보도들에 대해 사실 관계 여부를 떠나 유감이라는 답변도 했다"고 덧붙였다</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>"국정원장은 반복되는 인사 관련 언론 보도들에 대해 사실 관계 여부를 떠나 유감이라는 답변도 했다"</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.joongang.co.kr/article/25209522</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20231123</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>[속보] 국정원 “임박한 시일 내 北 7차 핵실험 징후 포착 안돼”</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>국회 정보위원회 더불어민주당 간사인 윤건영 의원은 23일 오전 전체회의를 열고 국가정보원으로부터 현안 보고를 받은 뒤 기자들과 만나 "국정원은 북한 핵실험이 임박한 상황인데도 징후가 포착되지 않고 있다고 했다"며 "풍계리에서도 발사 징후가 현재까지 포착되지 않았지만 핵실험 부분은 북한 최고지도자 결심 사항으로 보면 된다는 답변이 있었다"고 전했다.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>국회 정보위원회 더불어민주당 간사인 윤건영 의원은 23일 오전 전체회의를 열고 국가정보원으로부터 현안 보고를 받은 뒤 기자들과 만나 "국정원은 북한 핵실험이 임박한 상황인데도 징후가 포착되지 않고 있다고 했다"며 "풍계리에서도 발사 징후가 현재까지 포착되지 않았지만 핵실험 부분은 북한 최고지도자 결심 사항으로 보면 된다는 답변이 있었다"고 전했다</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>"국정원은 북한 핵실험이 임박한 상황인데도 징후가 포착되지 않고 있다고 했다"  "풍계리에서도 발사 징후가 현재까지 포착되지 않았지만 핵실험 부분은 북한 최고지도자 결심 사항으로 보면 된다는 답변이 있었다"</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>국회 정보위원회 더불어민주당 간사인 윤건영 의원은 23일 오전 전체회의를 열고 국가정보원으로부터 현안 보고를 받은 뒤 기자들과 만나 "국정원은 북한 핵실험이 임박한 상황인데도 징후가 포착되지 않고 있다고 했다"며 "풍계리에서도 발사 징후가 현재까지 포착되지 않았지만 핵실험 부분은 북한 최고지도자 결심 사항으로 보면 된다는 답변이 있었다"고 전했다.
+이어 "연내 정찰위성 추가 발사는 어려울 것으로 보이지만 내년에는 가능성을 열어놓고 있다는 답변도 있었다"고 덧붙였다.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>국회 정보위원회 더불어민주당 간사인 윤건영 의원은 23일 오전 전체회의를 열고 국가정보원으로부터 현안 보고를 받은 뒤 기자들과 만나 "국정원은 북한 핵실험이 임박한 상황인데도 징후가 포착되지 않고 있다고 했다"며 "풍계리에서도 발사 징후가 현재까지 포착되지 않았지만 핵실험 부분은 북한 최고지도자 결심 사항으로 보면 된다는 답변이 있었다"고 전했다  이어 "연내 정찰위성 추가 발사는 어려울 것으로 보이지만 내년에는 가능성을 열어놓고 있다는 답변도 있었다"고 덧붙였다</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>"국정원은 북한 핵실험이 임박한 상황인데도 징후가 포착되지 않고 있다고 했다"  "풍계리에서도 발사 징후가 현재까지 포착되지 않았지만 핵실험 부분은 북한 최고지도자 결심 사항으로 보면 된다는 답변이 있었다"  "연내 정찰위성 추가 발사는 어려울 것으로 보이지만 내년에는 가능성을 열어놓고 있다는 답변도 있었다"</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2023/11/23/20231123510098.html</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>20231123</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>국정원 “北 정찰위성 러시아 도움 받은 것으로 판단”</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>앞서 북한은 지난 5월과 8월 군사정찰위성 ‘만리경-1호’의 1ㆍ2차 발사에 실패한 뒤 89일 만인 21일 밤 3차 발사를 감행했다. 이에 정부는 9ㆍ19 남북군사합의 1조 3항의 비행금지구역 설정에 대한 효력정지를 결정했다.
 특히 국정원은 "(위성의) 발사체 성공은 러시아의 도움이 있었을 것으로 판단한다"고 밝혔다고 유 의원이 전했다. 유 의원에 따르면 국정원은 "김정은 북한 국무위원장과 블라디미르 푸틴 러시아 대통령 회담 당시 푸틴 대통령이 발사체 자체를 지원하겠다는 의지를 공개적으로 밝혔고, 회담 이후 북한이 설계도 및 1ㆍ2차 발사체 관련한 데이터를 러시아에 제공하고 러시아가 분석 결과를 제공한 정황이 확인됐기 때문"이라고 설명했다. 다만 정보위 더불어민주당 간사인 윤건영 의원은 "(국정원은 도움 정황이) 구체적으로 확인된 것은 없다고 답변했다"고 전했다.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>다만 정보위 더불어민주당 간사인 윤건영 의원은 "(국정원은 도움 정황이) 구체적으로 확인된 것은 없다고 답변했다"고 전했다</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>"(국정원은 도움 정황이) 구체적으로 확인된 것은 없다고 답변했다"</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25209567</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>20231123</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>중앙일보</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>국정원 “北 정찰위성 러시아 도움 받은 것으로 판단”</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>또 국정원은 추가 위성 발사 가능성에 대해 "올해 내 추가 발사는 어렵지만 내년에 가능성을 열어두고 있다"고 답했다고 윤 의원이 전했다. 7차 핵실험에 대해선 "올해는 가능성을 높게 보지 않지만 내년엔 김정은 결심에 따라 언제든 가능성이 있다"고 답했다고 한다.
+한편 이날 김규현 원장은 최근 국정원 ‘인사파동’ 관련 보도들에 대해 "사실관계 여부를 떠나 유감"이라고 답했다고 윤 의원이 전했다. 다만 윤 의원은 "(김 원장은) 언론에 보도됐던 제1차장 감찰 여부 등에 대해선 ‘국정원 내부 감찰사안에 대해 말할 수 없다’고 답했다"고 전했다. 앞서 국정원은 특정 간부의 인사 전횡 논란 등에 휩싸였다.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>다만 윤 의원은 "(김 원장은) 언론에 보도됐던 제1차장 감찰 여부 등에 대해선 ‘국정원 내부 감찰사안에 대해 말할 수 없다’고 답했다"고 전했다</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>"(김 원장은) 언론에 보도됐던 제1차장 감찰 여부 등에 대해선 ‘국정원 내부 감찰사안에 대해 말할 수 없다’고 답했다"</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.joongang.co.kr/article/25209567</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20231123</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>신원식 “北 정찰위성, 러 지원으로 비약적 발전 우려” [北, 9·19 합의 파기 선언]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>신원식 국방부 장관은 23일 국회 국방위원회 전체회의에서 북한 정찰위성의 성공 여부와 관련해 "한 3∼4일 정도 두고봐야 한다"며 "위성의 재방문 주기가 1시간30분 정도인데 며칠 동안 지상과의 통신과 위성의 모습을 포착해야 정상가동 여부를 판단할 수 있을 것"이라고 말했다. 그러면서 "이번 주말이나 내주 초쯤 한·미·일이 종합적인 평가를 해야 알 수 있을 것"이라고 덧붙였다. 신 장관은 로켓 및 위성체 분야에서 러시아가 북한을 지원했을 가능성을 거론하며 북한 정찰위성의 성능이 "러시아의 기술 지원을 예상할 수 있어 (앞으로) 비약적으로 발전하지 않을까 우려한다"고 말했다.
 국가정보원도 북한의 기술 발전 배경에 러시아의 도움이 있었을 것으로 판단했다. 이날 국회 정보위원회 비공개 회의에 참석한 정보위 국민의힘 간사 유상범 의원과 더불어민주당 간사 윤건영 의원은 "북·러 회담 당시 푸틴이 북한의 발사체 자체를 지원하겠다는 의지를 공개적으로 밝혔고, 회담 후 북한이 설계도 및 1·2차 발사체와 관련한 데이터를 러시아에 제공하고 러시아가 그 분석 결과를 (북한에) 제공한 정황이 확인됐다"며 이같이 전했다.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>이날 국회 정보위원회 비공개 회의에 참석한 정보위 국민의힘 간사 유상범 의원과 더불어민주당 간사 윤건영 의원은 "북·러 회담 당시 푸틴이 북한의 발사체 자체를 지원하겠다는 의지를 공개적으로 밝혔고, 회담 후 북한이 설계도 및 1·2차 발사체와 관련한 데이터를 러시아에 제공하고 러시아가 그 분석 결과를 (북한에) 제공한 정황이 확인됐다"며 이같이 전했다</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>"북·러 회담 당시 푸틴이 북한의 발사체 자체를 지원하겠다는 의지를 공개적으로 밝혔고, 회담 후 북한이 설계도 및 1·2차 발사체와 관련한 데이터를 러시아에 제공하고 러시아가 그 분석 결과를 (북한에) 제공한 정황이 확인됐다"</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2023/11/23/20231123515830.html</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>20231124</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>국정원 “러시아, 北에 위성 설계도와 데이터 분석 제공한 정황”</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>국가정보원은 23일 국회 정보위원회에 "러시아가 북한에 정찰위성 설계도 및 관련 데이터 분석 결과를 제공한 정황이 확인됐다"고 보고했다.
 국회 정보위 국민의힘 간사인 유상범 의원과 민주당 간사인 윤건영 의원은 국정원이 이날 비공개 회의에서 "북한 발사체 성공에는 러시아의 도움이 있었을 것으로 판단한다"며 이렇게 보고했다고 전했다. 국정원은 "(지난 9월) 북·러 정상회담 당시 푸틴 러시아 대통령이 북한의 발사체 자체를 지원하겠다는 의지를 공개적으로 밝혔다"며 "회담 후 북한이 설계도 및 1·2차 발사체와 관련한 데이터를 러시아에 제공하고 러시아가 그 분석 결과를 (북한에) 제공한 정황이 확인됐다"고 했다.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>국회 정보위 국민의힘 간사인 유상범 의원과 민주당 간사인 윤건영 의원은 국정원이 이날 비공개 회의에서 "북한 발사체 성공에는 러시아의 도움이 있었을 것으로 판단한다"며 이렇게 보고했다고 전했다</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>"북한 발사체 성공에는 러시아의 도움이 있었을 것으로 판단한다"</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>https://www.chosun.com/politics/north_korea/2023/11/24/RY6IUMNKTBGTZL7NQRZQRXULWQ/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>20231126</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>직무대행 홍장원 1차장 ‘용산 복심’ 평가… 차기원장 거론 김용현·김태효와도 ‘막역’ [국정원 지휘부 전격 교체]</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>홍 차장은 후임 국정원장 인선까지 직무대행을 맡는다. 대통령실은 원장직을 오래 비워 둘 수 없다고 보고 인선 절차에 속도를 내고 있는 것으로 전해졌다. 국정원장은 국회 인사청문 대상이다. 대통령실 관계자는 "인사청문회를 거쳐야 해서 검증 과정 등 물리적으로 시간이 필요하다"며 "정보기관 수장을 오래 비워 두는 것은 바람직하지 않으니 최대한 속도를 낼 것"이라고 말했다.
 야권에선 거듭된 국정원 인사 파동에 문제를 제기했다. 국회 정보위원회 야당 간사인 더불어민주당 윤건영 의원은 이날 세계일보와 통화에서 국정원 지휘부 일괄 사임을 두고 "그동안 국정원의 인사참사가 1∼2번도 아니고 4∼5번 반복될 동안 (용산 대통령실이) 손을 안 쓰고 있었다"며 "국정원이 아니라 걱정원이었다. 지금까지 끌고 온 게 문제이고 너무 늦었다고 본다"고 했다.</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>국회 정보위원회 야당 간사인 더불어민주당 윤건영 의원은 이날 세계일보와 통화에서 국정원 지휘부 일괄 사임을 두고 "그동안 국정원의 인사참사가 1∼2번도 아니고 4∼5번 반복될 동안 (용산 대통령실이) 손을 안 쓰고 있었다"며 "국정원이 아니라 걱정원이었다. 지금까지 끌고 온 게 문제이고 너무 늦었다고 본다"고 했다</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>"그동안 국정원의 인사참사가 1∼2번도 아니고 4∼5번 반복될 동안 (용산 대통령실이) 손을 안 쓰고 있었다"  "국정원이 아니라 걱정원이었다. 지금까지 끌고 온 게 문제이고 너무 늦었다고 본다"</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2023/11/26/20231126509917.html</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20231126</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>직무대행 홍장원 1차장 ‘용산 복심’ 평가… 차기원장 거론 김용현·김태효와도 ‘막역’ [국정원 지휘부 전격 교체]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>야권에선 거듭된 국정원 인사 파동에 문제를 제기했다. 국회 정보위원회 야당 간사인 더불어민주당 윤건영 의원은 이날 세계일보와 통화에서 국정원 지휘부 일괄 사임을 두고 "그동안 국정원의 인사참사가 1∼2번도 아니고 4∼5번 반복될 동안 (용산 대통령실이) 손을 안 쓰고 있었다"며 "국정원이 아니라 걱정원이었다. 지금까지 끌고 온 게 문제이고 너무 늦었다고 본다"고 했다.
+윤 의원은 지휘부 일괄 사임 후 국정원장에 앞서 1, 2차장이 먼저 임명된 것에 대해선 "용산이 국정원을 관할하겠다는 취지로 보인다"며 "원장이 인사청문회를 거친 뒤 조직을 둘러보고 차장 인선을 하는 것이 정상"이라고 지적했다. 그러면서 "이번 인사는 국정원을 용산이 장악하고 직접 정치적으로 활용하겠다는 의구심을 만든다"고 했다.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>윤 의원은 지휘부 일괄 사임 후 국정원장에 앞서 1, 2차장이 먼저 임명된 것에 대해선 "용산이 국정원을 관할하겠다는 취지로 보인다"며 "원장이 인사청문회를 거친 뒤 조직을 둘러보고 차장 인선을 하는 것이 정상"이라고 지적했다  윤 의원은 지휘부 일괄 사임 후 국정원장에 앞서 1, 2차장이 먼저 임명된 것에 대해선 "용산이 국정원을 관할하겠다는 취지로 보인다"며 "원장이 인사청문회를 거친 뒤 조직을 둘러보고 차장 인선을 하는 것이 정상"이라고 지적했다  그러면서 "이번 인사는 국정원을 용산이 장악하고 직접 정치적으로 활용하겠다는 의구심을 만든다"고 했다</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>"용산이 국정원을 관할하겠다는 취지로 보인다"  "원장이 인사청문회를 거친 뒤 조직을 둘러보고 차장 인선을 하는 것이 정상"  "이번 인사는 국정원을 용산이 장악하고 직접 정치적으로 활용하겠다는 의구심을 만든다"</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2023/11/26/20231126509917.html</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>20231127</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>윤건영, 국정원장 교체에 “참 요상한 인사…尹대통령 인사 빵점”</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>윤건영 더불어민주당 의원은 26일 윤석열 대통령이 김규현 국가정보원장을 비롯한 국정원 수뇌부를 전격 교체한 것에 대해 "너무 늦은 인사다. 진작 했어야 하는 일을 이제야 한 것"이라고 지적했다.</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>윤건영 더불어민주당 의원은 26일 윤석열 대통령이 김규현 국가정보원장을 비롯한 국정원 수뇌부를 전격 교체한 것에 대해 "너무 늦은 인사다. 진작 했어야 하는 일을 이제야 한 것"이라고 지적했다</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>"너무 늦은 인사다. 진작 했어야 하는 일을 이제야 한 것"</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25210309</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>20231127</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>윤건영, 국정원장 교체에 “참 요상한 인사…尹대통령 인사 빵점”</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>윤건영 더불어민주당 의원은 26일 윤석열 대통령이 김규현 국가정보원장을 비롯한 국정원 수뇌부를 전격 교체한 것에 대해 "너무 늦은 인사다. 진작 했어야 하는 일을 이제야 한 것"이라고 지적했다.
-문재인 정부에서 청와대 국정상황실장을 지낸 윤 의원은 이날 페이스북에 "참 요상한 인사(人事)"라며 이같이 썼다.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>문재인 정부에서 청와대 국정상황실장을 지낸 윤 의원은 이날 페이스북에 "참 요상한 인사(人事)"라며 이같이 썼다</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>"참 요상한 인사(人事)"</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+문재인 정부에서 청와대 국정상황실장을 지낸 윤 의원은 이날 페이스북에 "참 요상한 인사(人事)"라며 이같이 썼다.
+윤 의원은 "윤석열 정부 출범 후, 국정원 역사상 있을 수 없는 인사 참사가 수차례 반복되어 왔다. 심지어 언론 플레이 등 국정원 내부의 총질까지 나오는 마당이었다"며 "그런데도 용산 대통령실은 아무 조치도 하지 않았다"고 설명했다.
+이어 "여전히 이상한 인사다. 원장을 교체한다면서, 차장부터 임명했다"며 "정상적이라면 원장을 임명하고, 그의 의견을 들어 차장을 임명하는 게 상식적이다. 한마디로 거꾸로 가는 인사"라고 했다.
+그러면서 "차장 임명하는데, 원장 의견을 전혀 반영하지 않는 요상한 인사를 하는 것은 용산 대통령실이 국정원을 직접 장악하겠다는, 그 이상도 이하도 아니다"라며 "어차피 ‘바지 사장’을 앉힐 생각이니 상관없다는 생각일까. 아니면 국정원장 후보자로 ‘오직 충성심으로 똘똘 뭉친 사람’을 점찍어 두었으니 상식 따위는 중요치 않다는 것일까"라고 되물었다.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>문재인 정부에서 청와대 국정상황실장을 지낸 윤 의원은 이날 페이스북에 "참 요상한 인사(人事)"라며 이같이 썼다  윤 의원은 "윤석열 정부 출범 후, 국정원 역사상 있을 수 없는 인사 참사가 수차례 반복되어 왔다. 심지어 언론 플레이 등 국정원 내부의 총질까지 나오는 마당이었다"며 "그런데도 용산 대통령실은 아무 조치도 하지 않았다"고 설명했다  이어 "여전히 이상한 인사다. 원장을 교체한다면서, 차장부터 임명했다"며 "정상적이라면 원장을 임명하고, 그의 의견을 들어 차장을 임명하는 게 상식적이다. 한마디로 거꾸로 가는 인사"라고 했다  그러면서 "차장 임명하는데, 원장 의견을 전혀 반영하지 않는 요상한 인사를 하는 것은 용산 대통령실이 국정원을 직접 장악하겠다는, 그 이상도 이하도 아니다"라며 "어차피 ‘바지 사장’을 앉힐 생각이니 상관없다는 생각일까. 아니면 국정원장 후보자로 ‘오직 충성심으로 똘똘 뭉친 사람’을 점찍어 두었으니 상식 따위는 중요치 않다는 것일까"라고 되물었다</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>"참 요상한 인사(人事)"  "윤석열 정부 출범 후, 국정원 역사상 있을 수 없는 인사 참사가 수차례 반복되어 왔다. 심지어 언론 플레이 등 국정원 내부의 총질까지 나오는 마당이었다"  "그런데도 용산 대통령실은 아무 조치도 하지 않았다"  "여전히 이상한 인사다. 원장을 교체한다면서, 차장부터 임명했다"  "정상적이라면 원장을 임명하고, 그의 의견을 들어 차장을 임명하는 게 상식적이다. 한마디로 거꾸로 가는 인사"  "차장 임명하는데, 원장 의견을 전혀 반영하지 않는 요상한 인사를 하는 것은 용산 대통령실이 국정원을 직접 장악하겠다는, 그 이상도 이하도 아니다"  "어차피 ‘바지 사장’을 앉힐 생각이니 상관없다는 생각일까. 아니면 국정원장 후보자로 ‘오직 충성심으로 똘똘 뭉친 사람’을 점찍어 두었으니 상식 따위는 중요치 않다는 것일까"</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25210309</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>20231201</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>산재 청문회서 끼임·추락사 질타…DL·SPC 회장 고개 숙였다</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>두 회장은 모두 앞으로 노동자 사망 사고가 발생하지 않도록 안전 조치를 강화하겠다고 약속했다. 이 회장은 "안전 비용의 경우 올해 작년보다 29%를 증액했고, 내년에도 20% 이상 증액할 계획을 갖고 있다"며 "가장 안전한 현장을 운영하는 회사로 거듭나겠다"고 다짐했다. 허 회장은 "안전 교육을 더 많이 하고 위험한 부분은 기계 설비로 대체해서 작업자를 보호하겠다"고 강조했다. 정의당 이은주 의원은 이 회장에게 "안전 비용을 고려하지 않은 최저가 낙찰제나 다단계 하도급 문제를 개선하지 않으면 산재는 계속 발생할 수밖에 없다"고 말했다.
 환노위 위원은 산재를 막기 위한 근본적인 개선 방안을 마련하라고 주문했다. 특히 여야 모두 산재 사고의 주된 원인인 SPC의 ‘2조 2교대’ 장시간 근무 구조를 지적했다. 윤건영 민주당 의원은 허 회장에게 "2조 2교대 등 장시간 노동으로 직원이 고통받고 있다면 이를 해결하려고 하는 게 온당한 것"이라며 "CJ제일제당은 4조 3교대로 돌아섰는데, SPC가 얼마나 후진적인지 보여주는 것"이라고 짚었다. 전용기 민주당 의원은 "노동자는 2교대를 개선하지 않으면 죽음의 사고가 또 일어날 수밖에 없다고 지적한다"고 전했다.</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>윤건영 민주당 의원은 허 회장에게 "2조 2교대 등 장시간 노동으로 직원이 고통받고 있다면 이를 해결하려고 하는 게 온당한 것"이라며 "CJ제일제당은 4조 3교대로 돌아섰는데, SPC가 얼마나 후진적인지 보여주는 것"이라고 짚었다</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>"2조 2교대 등 장시간 노동으로 직원이 고통받고 있다면 이를 해결하려고 하는 게 온당한 것"  "CJ제일제당은 4조 3교대로 돌아섰는데, SPC가 얼마나 후진적인지 보여주는 것"</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25211754</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>20231201</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>尹대통령 부부, 11일부터 네덜란드 국빈 방문... 野 “또 나가나”</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>윤 대통령은 13일에는 헤이그에서 마르크 뤼터 네덜란드 총리와 면담한 뒤 이준 열사 기념관을 방문한다. 헤이그는 1907년 제2차 만국 평화회의가 열린 곳으로, 고종은 당시 이준 특사를 만국 평화회의에 파견해 을사늑약의 부당함을 알리고자 했다.
 민주당에서는 "또 해외 순방이냐"는 비판이 나왔다. 윤건영 의원은 1일 본지 통화에서 "윤 대통령은 올해 외교 예산으로 578억원을 썼는데 문재인 정부에서 코로나 직전인 2019년 순방 예산이 234억원이었다"며 "해외 순방 자체를 폄하할 생각은 없지만 윤 대통령 순방 효과가 미미하다는 게 이번 엑스포 표결에서 드러났다"고 했다. 민주당은 윤 대통령이 해외순방 예산 249억원을 다 쓰고, 예비비 329억원까지 끌어와 추가로 썼다고 했다. 안귀령 상근부대변인은 "지금 국민의 삶이 휘청거리고 있는데 윤 대통령은 해외에 나갈 궁리 하지 말고 추락하는 경제와 치솟는 물가에 허리가 휘는 국민을 챙기는 데 전념하기 바란다"고 했다.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>윤건영 의원은 1일 본지 통화에서 "윤 대통령은 올해 외교 예산으로 578억원을 썼는데 문재인 정부에서 코로나 직전인 2019년 순방 예산이 234억원이었다"며 "해외 순방 자체를 폄하할 생각은 없지만 윤 대통령 순방 효과가 미미하다는 게 이번 엑스포 표결에서 드러났다"고 했다</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>"윤 대통령은 올해 외교 예산으로 578억원을 썼는데 문재인 정부에서 코로나 직전인 2019년 순방 예산이 234억원이었다"  "해외 순방 자체를 폄하할 생각은 없지만 윤 대통령 순방 효과가 미미하다는 게 이번 엑스포 표결에서 드러났다"</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>https://www.chosun.com/politics/assembly/2023/12/01/DBUMBEC3I5GW3FC72BFG7XS44E/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>20231214</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>세계일보</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>신당 추진' 이낙연 "금태섭·양향자 만나 큰 줄거리 뜻 같이해"</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>비명계 한 중진 의원은 연합뉴스와 통화에서 "이낙연 신당에 동참할 의원은 한 명도 없는 상황"이라며 "이 전 대표가 허깨비에 씌었다는 말까지 나온다"고 했다.
-친문(친문재인) 인사인 윤건영 의원은 라디오에서 "대한민국을 위해서도 그렇고 민주당을 위해서도 본인을 위해서도 하나도 도움이 안 된다"며 "도시락 싸 들고 다니면서 말리고 싶은 그런 심정"이라고 지적했다.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>친문(친문재인) 인사인 윤건영 의원은 라디오에서 "대한민국을 위해서도 그렇고 민주당을 위해서도 본인을 위해서도 하나도 도움이 안 된다"며 "도시락 싸 들고 다니면서 말리고 싶은 그런 심정"이라고 지적했다</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>"대한민국을 위해서도 그렇고 민주당을 위해서도 본인을 위해서도 하나도 도움이 안 된다"  "도시락 싸 들고 다니면서 말리고 싶은 그런 심정"</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>http://www.segye.com/content/html/2023/12/14/20231214510099.html</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>국민일보</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>“김·노·문의 정치 해야”…윤건영, 선거제 병립형 회귀 반대</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>윤건영 더불어민주당 의원이 선거제 개편 논의와 관련해 "정치는 약속을 지키는 것"이라며 "우리 당이 했던 약속을 지켜야 한다"고 밝혔다. 당 지도부가 연일 시사하고 있는 ‘병립형 비례대표제 회귀’에 반대한다는 것이다.
+윤 의원은 14일 오전 MBC라디오 ‘김종배의 시선집중’에 출연해 이같이 말하며 "정치를 하려면 원칙이 있고 대의명분이 있는 민주당의 길을 가야 한다. 김대중 노무현 문재인의 정치를 하는 게 맞다"고 강조했다.
+그는 "아직은 당내 여론의 차이가 커서 결론이 못 날 것 같다"면서도 "어느 길을 가더라도 그 길을 밝히고 국민의 동의를 구하는 게 맞다. 민주당 지도부가 당당한 정치를 했으면 좋겠다"고 했다.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>윤 의원은 14일 오전 MBC라디오 ‘김종배의 시선집중’에 출연해 이같이 말하며 "정치를 하려면 원칙이 있고 대의명분이 있는 민주당의 길을 가야 한다. 김대중 노무현 문재인의 정치를 하는 게 맞다"고 강조했다  그는 "아직은 당내 여론의 차이가 커서 결론이 못 날 것 같다"면서도 "어느 길을 가더라도 그 길을 밝히고 국민의 동의를 구하는 게 맞다. 민주당 지도부가 당당한 정치를 했으면 좋겠다"고 했다</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>"정치를 하려면 원칙이 있고 대의명분이 있는 민주당의 길을 가야 한다. 김대중 노무현 문재인의 정치를 하는 게 맞다"  "아직은 당내 여론의 차이가 커서 결론이 못 날 것 같다"  "어느 길을 가더라도 그 길을 밝히고 국민의 동의를 구하는 게 맞다. 민주당 지도부가 당당한 정치를 했으면 좋겠다"</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://news.kmib.co.kr/article/view.asp?arcid=0018970737&amp;code=61111111&amp;cp=kd</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>20231214</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>세계일보</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>野의총서 '병립형 반대' 분출…'내주 선거제 결론 내자' 의견도</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>임 원내대변인은 "다음 주에 의원총회를 통해서도 계속 논의를 이어갈 것"이라면서도 "다음 주 중으로 어느 정도 결정을 해야 한다는 의견이 많았다"고 말했다.
-윤건영 의원은 이날 MBC라디오 '김종배의 시선집중'에 나와 "지도부가 당당한 정치를 했으면 좋겠다"며 "시간 끌지 말고 어느 길을 가더라도 그 길을 밝히고 국민 동의를 구하는 게 맞다"고 강조했다.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>윤건영 의원은 이날 MBC라디오 '김종배의 시선집중'에 나와 "지도부가 당당한 정치를 했으면 좋겠다"며 "시간 끌지 말고 어느 길을 가더라도 그 길을 밝히고 국민 동의를 구하는 게 맞다"고 강조했다</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>"지도부가 당당한 정치를 했으면 좋겠다"  "시간 끌지 말고 어느 길을 가더라도 그 길을 밝히고 국민 동의를 구하는 게 맞다"</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>http://www.segye.com/content/html/2023/12/14/20231214517543.html</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>국민일보</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>“김·노·문의 정치 해야”…윤건영, 선거제 병립형 회귀 반대</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>민주당은 이날 오후 의원총회를 열고 선거제 개편에 대한 의원들의 총의를 모을 계획이다. 지도부는 병립형 비례대표제 회귀에 무게를 싣고 있는 것으로 알려졌다. 당내 비명(비이재명)계 의원들은 연동형 비례제를 지지하고 있다.
+윤 의원은 전날 이낙연 전 대표가 신당 창당 의사를 밝힌 데 대해선 "도시락 싸들고 다니면서 말리고 싶은 심정"이라고 말했다. 그는 "이 전 대표가 걱정하는 대한민국을 위해서도, 민주당을 위해서도, 본인을 위해서도 (창당은) 도움이 안 된다"며 "결과적으로 지금의 행동은 (민주당에 대한) 그 애정마저 의심케 하는 결과를 초래했다"고 지적했다.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>윤 의원은 전날 이낙연 전 대표가 신당 창당 의사를 밝힌 데 대해선 "도시락 싸들고 다니면서 말리고 싶은 심정"이라고 말했다  그는 "이 전 대표가 걱정하는 대한민국을 위해서도, 민주당을 위해서도, 본인을 위해서도 (창당은) 도움이 안 된다"며 "결과적으로 지금의 행동은 (민주당에 대한) 그 애정마저 의심케 하는 결과를 초래했다"고 지적했다</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>"도시락 싸들고 다니면서 말리고 싶은 심정"  "이 전 대표가 걱정하는 대한민국을 위해서도, 민주당을 위해서도, 본인을 위해서도 (창당은) 도움이 안 된다"  "결과적으로 지금의 행동은 (민주당에 대한) 그 애정마저 의심케 하는 결과를 초래했다"</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://news.kmib.co.kr/article/view.asp?arcid=0018970737&amp;code=61111111&amp;cp=kd</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20231214</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>국민일보</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>“김·노·문의 정치 해야”…윤건영, 선거제 병립형 회귀 반대</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>윤 의원은 전날 이낙연 전 대표가 신당 창당 의사를 밝힌 데 대해선 "도시락 싸들고 다니면서 말리고 싶은 심정"이라고 말했다. 그는 "이 전 대표가 걱정하는 대한민국을 위해서도, 민주당을 위해서도, 본인을 위해서도 (창당은) 도움이 안 된다"며 "결과적으로 지금의 행동은 (민주당에 대한) 그 애정마저 의심케 하는 결과를 초래했다"고 지적했다.
+윤 의원은 이 전 대표와 양향자 의원, 금태섭 전 의원 등의 제3지대 구축 추진에 대해선 특별한 의미를 두지 않았다. 그는 "어떤 총선을 막론하고라도 15% 정도는 국민적인 지지가 제3 정치세력으로 모아졌다"며 "다만 그것이 성공할 것이냐 실패할 것이냐는 논외로 하더라도 그런 큰 흐름에서 보면 특별한 것은 아니다"고 말했다.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>그는 "어떤 총선을 막론하고라도 15% 정도는 국민적인 지지가 제3 정치세력으로 모아졌다"며 "다만 그것이 성공할 것이냐 실패할 것이냐는 논외로 하더라도 그런 큰 흐름에서 보면 특별한 것은 아니다"고 말했다</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>"어떤 총선을 막론하고라도 15% 정도는 국민적인 지지가 제3 정치세력으로 모아졌다"  "다만 그것이 성공할 것이냐 실패할 것이냐는 논외로 하더라도 그런 큰 흐름에서 보면 특별한 것은 아니다"</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://news.kmib.co.kr/article/view.asp?arcid=0018970737&amp;code=61111111&amp;cp=kd</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>20231221</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>한동훈 비대위'에 민주당 "정치·국정 문외한" 비판</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>한 대변인은 "한 장관이 '누구에게도 맹종하지 않았다'는 본인 말을 입증하려면, 용핵관(용산 대통령실 핵심관계자), 검핵관(검찰 핵심관계자)에게 대거 공천장을 주고, '김건희 특검법'을 온몸으로 막을 것이란 국민적 우려부터 불식해야 한다"며 "그렇지 않으면 한 장관은 윤 대통령 아바타, 김 여사 호위무사 그 이상도 이하도 아니다"고 말했다.
 문재인 정부 국정상황실장 출신인 윤건영 의원은 페이스북에 "예의도 없고, 염치도 없다"며 "국정은 뒷전이고, 오직 선거에만 '올인'하고 있음을 스스로 입증한 것"이라고 비판했다.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>문재인 정부 국정상황실장 출신인 윤건영 의원은 페이스북에 "예의도 없고, 염치도 없다"며 "국정은 뒷전이고, 오직 선거에만 '올인'하고 있음을 스스로 입증한 것"이라고 비판했다</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>"예의도 없고, 염치도 없다"  "국정은 뒷전이고, 오직 선거에만 '올인'하고 있음을 스스로 입증한 것"</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25216716</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>20231227</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>3총리 불러 세우나…한동훈∙이낙연 압박 속 이재명 반전카드는</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>이 전 대표는 이날 서울 강북문화예술회관에서 열린 김대중재단 서울 강북지회 출범식에 참석한 후 기자들과 만나 공동선대위원장 구상 등에 대해 "특별한 생각을 가지고 있지 않다"고 말했다. 또 "(이 대표와의 만남이) 조정되고 있거나 그런 일은 없는 것으로 안다"고 덧붙였다.
 민주당이 이러는 사이 이날 한동훈 전 법무부 장관이 국민의힘 비상대책위원장 취임하면서 당 안팎의 쇄신 압박도 커지고 있다. 문재인 전 대통령의 핵심 측근인 윤건영 의원은 페이스북에 "저들은 권력을 위해서는 그 어떤 일도 하는 세력이다. ‘한동훈 비대위원장은 땡큐’라는 우리 안의 생각은 완전히 버려야 한다"며 "당내 다양한 세력을 멋지게 통합하는 실력을, 민생 현안에 대한 구체적 대안을, 혁신을 통한 새로운 정치를 보여줘야 한다"고 썼다.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>문재인 전 대통령의 핵심 측근인 윤건영 의원은 페이스북에 "저들은 권력을 위해서는 그 어떤 일도 하는 세력이다. ‘한동훈 비대위원장은 땡큐’라는 우리 안의 생각은 완전히 버려야 한다"며 "당내 다양한 세력을 멋지게 통합하는 실력을, 민생 현안에 대한 구체적 대안을, 혁신을 통한 새로운 정치를 보여줘야 한다"고 썼다</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>"저들은 권력을 위해서는 그 어떤 일도 하는 세력이다. ‘한동훈 비대위원장은 땡큐’라는 우리 안의 생각은 완전히 버려야 한다"  "당내 다양한 세력을 멋지게 통합하는 실력을, 민생 현안에 대한 구체적 대안을, 혁신을 통한 새로운 정치를 보여줘야 한다"</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25217741</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>20240111</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>조태용 “북핵·미사일 총력대응… 안보침해범죄 선제차단”</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>조 후보자는 이날 오전 국회에서 열린 국정원장 후보자 인사청문회에서 "북한의 핵·미사일 및 사이버 위협 고도화와 미·중 간 전략경쟁 심화, 글로벌 공급망 교란 등 경제안보 이슈까지 국정원의 역할과 책임은 그 어느 때보다 커졌다"며 이같이 밝혔다. 조 후보자는 국정원의 대공수사권 폐지와 관련, "안보 공백 우려가 크다는 것을 잘 알고 있다"며 "안보침해 범죄에 대한 정보수집과 대응에 만전을 기해 자유민주주의를 굳건히 수호하겠다"고 강조했다. 조 후보자는 이어 "북한이 외화벌이와 대량파괴무기(WMD) 기술 탈취 등을 위해 자행하고 있는 해킹 등 사이버 불법행위를 선제적으로 차단하는 데에도 전력하겠다"고 덧붙였다.
+한편 여야는 인사청문회에서 조 후보자의 자료 제출 미비, 공직 후보자 적격성 문제 등을 둘러싸고 공방을 이어갔다. 국회 정보위원회 소속 김의겸 더불어민주당 의원은 "조 후보자의 두 아들이 공익근무 판정을 받았는데, 사유를 전혀 밝히지 않고 있다"고 말했고, 야당 간사인 윤건영 의원은 "후보자 배우자가 재산이 20억 원가량 줄었고, 최근엔 거액의 증여세를 냈는데 이에 대한 자료가 하나도 제출되지 않았다"고 지적했다. 민주당은 조 후보자의 ‘엑슨모빌 자회사 거액 임대료 수수’ 의혹 등에 대해서도 집중 공세를 벌였다. 홍익표 민주당 원내대표는 청문회 전 열린 당 정책조정회의에서 "국익을 수호하고 산업스파이를 잡아야 하는 국정원장 후보자가 외국 기업과 부적절한 관계를 맺고, 국익을 훼손했다는 의혹을 받고 있는 만큼 대통령은 후보자 지명을 철회해야 한다"고 말했다.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>국회 정보위원회 소속 김의겸 더불어민주당 의원은 "조 후보자의 두 아들이 공익근무 판정을 받았는데, 사유를 전혀 밝히지 않고 있다"고 말했고, 야당 간사인 윤건영 의원은 "후보자 배우자가 재산이 20억 원가량 줄었고, 최근엔 거액의 증여세를 냈는데 이에 대한 자료가 하나도 제출되지 않았다"고 지적했다</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>"후보자 배우자가 재산이 20억 원가량 줄었고, 최근엔 거액의 증여세를 냈는데 이에 대한 자료가 하나도 제출되지 않았다"</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2024011101070630207001</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20240111</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>조태용 국정원장 후보자, 엑손모빌 고액 임대 논란…“통상적 거래”, “뇌물 아니냐”</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>홍익표 의원은 "한덕수 총리나 권영세 전 장관 등 유사한 사례가 많이 있는데, 외국계 기업이 외교통상 쪽에 있는 분들에게 특별히 이런 것(임대료 지급)을 하는 게 또 다른 부당한 거래나 뇌물이라는 생각은 안 해봤느냐"면서 "정부 차원에서 전수조사가 필요한 것 같다"고 주장했다.
 윤건영 의원도 "대한민국 정보기관 수장이 되려는 분이 이렇게 불법 또는 탈법한 일이 있어선 안 된다"고 비판했다.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>윤건영 의원도 "대한민국 정보기관 수장이 되려는 분이 이렇게 불법 또는 탈법한 일이 있어선 안 된다"고 비판했다</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>"대한민국 정보기관 수장이 되려는 분이 이렇게 불법 또는 탈법한 일이 있어선 안 된다"</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>https://news.kmib.co.kr/article/view.asp?arcid=0019056865&amp;code=61111511&amp;cp=kd</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>20240113</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>고민정 “윤영찬 탈당 막았더니 돌아오는 건 손가락질뿐”</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>윤 의원 탈당을 촉구하는 일부 당내 인사들을 향해선 "지도부에서 끝까지 노력을 해서 (탈당을) 만류했던 것"이라며 "당 지도부의 뜻을 거스르는 행동들은 좀 자제해 달라고 부탁드리고 싶다"고 강조했다.
+한편 윤 의원은 전날 SNS를 통해 잔류 이유에 대해 "민주당을 버리기에는 그 역사가, 김대중 노무현의 흔적이 너무 귀하다. 그 흔적을 지키고 더 선명하게 닦는 것이 제 소임"이라며 "선산을 지키는 굽은 나무처럼 비바람과 폭풍우를 견뎌내고 당을 기어이 재건해 나가겠다. 그래서 누구나 다 다시 합쳐질 수 있는 원칙과 상식의 광장으로 만들려 한다"고 밝혔다.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>한편 윤 의원은 전날 SNS를 통해 잔류 이유에 대해 "민주당을 버리기에는 그 역사가, 김대중 노무현의 흔적이 너무 귀하다. 그 흔적을 지키고 더 선명하게 닦는 것이 제 소임"이라며 "선산을 지키는 굽은 나무처럼 비바람과 폭풍우를 견뎌내고 당을 기어이 재건해 나가겠다. 그래서 누구나 다 다시 합쳐질 수 있는 원칙과 상식의 광장으로 만들려 한다"고 밝혔다</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>"민주당을 버리기에는 그 역사가, 김대중 노무현의 흔적이 너무 귀하다. 그 흔적을 지키고 더 선명하게 닦는 것이 제 소임"  "선산을 지키는 굽은 나무처럼 비바람과 폭풍우를 견뎌내고 당을 기어이 재건해 나가겠다. 그래서 누구나 다 다시 합쳐질 수 있는 원칙과 상식의 광장으로 만들려 한다"</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2024/01/13/20240113500541.html</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20240113</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>개혁신당 공약에 소환된 과거 ‘문재인 딸’ 靑 거주 논란…이준석 “같이 다뤄야 한다고 생각”</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>청와대는 ‘아빠 찬스’라는 당시 야당인 국민의힘의 지적에 동의할 수 없다면서도, 다혜씨의 관저 거주 여부에 답하기 어렵다는 입장을 보였었다. 무엇보다 가족 거주와 관련해 법령을 위반하거나 부적절한 사항은 없다는 해명이었는데, 유영민 대통령 비서실장은 그 시기 국회 운영위원회 전체회의에서 "대통령과 그 가족에 대한 국민의 알 권리는 인정하지만, 사적인 영역이나 보호받아야 할 영역은 존중해주시길 부탁한다"고 말할 뿐이었다.
 사회적으로 민감한 이슈인 ‘부모 찬스’라는 표현이 그것도 대통령 가족을 둘러싸고 제기된 상황에서 윤건영 더불어민주당 의원은 MBC 라디오에 나와 "야당의 정치 공세"라며 "야비하다"는 비판과 함께 "솔직히 말해 딸이 친정에 와서 있는 것 아니냐"라는 별일 아니라는 듯 반응해 비난 여론을 더욱 자극했다. 법적으로 아무 문제없고 관례적으로도 역대 대통령 가족은 청와대에 거주했다면서 행정비용 측면에서도 청와대 안에 같이 있는 게 훨씬 효율적이라는 게 당시 윤 의원의 주장이었다.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>사회적으로 민감한 이슈인 ‘부모 찬스’라는 표현이 그것도 대통령 가족을 둘러싸고 제기된 상황에서 윤건영 더불어민주당 의원은 MBC 라디오에 나와 "야당의 정치 공세"라며 "야비하다"는 비판과 함께 "솔직히 말해 딸이 친정에 와서 있는 것 아니냐"라는 별일 아니라는 듯 반응해 비난 여론을 더욱 자극했다</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>"야당의 정치 공세"  "야비하다"  "솔직히 말해 딸이 친정에 와서 있는 것 아니냐"</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/01/13/20240113503290.html</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>20240117</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>검찰의 ‘文 전 사위 압수수색’에 靑 출신 민주 의원들 “尹 정치보복 도 넘어”</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>황 의원은 "피의자도 아닌 참고인 신분 자택 압수수색은 전례를 찾기 어려운 일"이라며 "의혹이 있다면 수사는 당연하지만, 사실상 마무리된 수사가 윤석열 대통령의 최측근이 전주지검장으로 가면서 분위기가 180도 바뀌었다"고 강조했다. 그리고는 "검찰은 문재인 전 대통령의 전 사위뿐만 아니라 가족의 계좌까지 샅샅이 들여다보면서 털고 있다"며 "계좌에 등장하는 사람까지 소환한다는데, 수사 목적이 진실규명이 아니라 괴롭히기인 말 그대로 정치 수사이자 전임 대통령을 겨냥한 정치보복"이라고 쏘아붙였다.
 최근 대통령기록관 압수수색에 이은 최수규 전 중소벤처기업부 차관 조사 등 서씨의 ‘특혜 취업’ 의혹에 관한 검찰의 강도 높은 수사에 같은 당 윤건영 의원은 "‘김건희 특검법’이 국회를 통과한 데 따른 ‘분풀이식’ 보복수사가 아닌지 의심하게 한다"고 주장했다.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>최근 대통령기록관 압수수색에 이은 최수규 전 중소벤처기업부 차관 조사 등 서씨의 ‘특혜 취업’ 의혹에 관한 검찰의 강도 높은 수사에 같은 당 윤건영 의원은 "‘김건희 특검법’이 국회를 통과한 데 따른 ‘분풀이식’ 보복수사가 아닌지 의심하게 한다"고 주장했다</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>"‘김건희 특검법’이 국회를 통과한 데 따른 ‘분풀이식’ 보복수사가 아닌지 의심하게 한다"</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/01/17/20240117514377.html</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>20240117</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>검찰의 ‘文 전 사위 압수수색’에 靑 출신 민주 의원들 “尹 정치보복 도 넘어”</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>최근 대통령기록관 압수수색에 이은 최수규 전 중소벤처기업부 차관 조사 등 서씨의 ‘특혜 취업’ 의혹에 관한 검찰의 강도 높은 수사에 같은 당 윤건영 의원은 "‘김건희 특검법’이 국회를 통과한 데 따른 ‘분풀이식’ 보복수사가 아닌지 의심하게 한다"고 주장했다.
 문재인 정부 청와대 국정상황실장 출신인 윤 의원은 "윤석열 정부 2년 동안 전임 정부의 머리끝부터 발끝까지 탈탈 털고도 부족해 가족까지 거꾸로 세워 털 셈인가"라며 "이렇게까지 해서 윤석열 정부가 얻고자 하는 것은 무엇인가"라고 물었다. 계속해서 "법은 만인 앞에 평등해야 하며 지위고하를 막론하고 죄가 있다면 처벌받아야 하지만, 죄가 없다면 전임 대통령 가족이라는 이유만으로는 괴롭힘 당해서는 안 된다"면서 "윤석열 대통령은 국민을 두려워하기 바란다"고 말했다.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>문재인 정부 청와대 국정상황실장 출신인 윤 의원은 "윤석열 정부 2년 동안 전임 정부의 머리끝부터 발끝까지 탈탈 털고도 부족해 가족까지 거꾸로 세워 털 셈인가"라며 "이렇게까지 해서 윤석열 정부가 얻고자 하는 것은 무엇인가"라고 물었다</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>"윤석열 정부 2년 동안 전임 정부의 머리끝부터 발끝까지 탈탈 털고도 부족해 가족까지 거꾸로 세워 털 셈인가"</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>문재인 정부 청와대 국정상황실장 출신인 윤 의원은 "윤석열 정부 2년 동안 전임 정부의 머리끝부터 발끝까지 탈탈 털고도 부족해 가족까지 거꾸로 세워 털 셈인가"라며 "이렇게까지 해서 윤석열 정부가 얻고자 하는 것은 무엇인가"라고 물었다  계속해서 "법은 만인 앞에 평등해야 하며 지위고하를 막론하고 죄가 있다면 처벌받아야 하지만, 죄가 없다면 전임 대통령 가족이라는 이유만으로는 괴롭힘 당해서는 안 된다"면서 "윤석열 대통령은 국민을 두려워하기 바란다"고 말했다</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>"윤석열 정부 2년 동안 전임 정부의 머리끝부터 발끝까지 탈탈 털고도 부족해 가족까지 거꾸로 세워 털 셈인가"  "이렇게까지 해서 윤석열 정부가 얻고자 하는 것은 무엇인가"  "법은 만인 앞에 평등해야 하며 지위고하를 막론하고 죄가 있다면 처벌받아야 하지만, 죄가 없다면 전임 대통령 가족이라는 이유만으로는 괴롭힘 당해서는 안 된다"  "윤석열 대통령은 국민을 두려워하기 바란다"</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/01/17/20240117514377.html</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>20240117</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>文 사위 압수수색에…민주당 "'인디언 기우제' 하듯 정치수사"</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>이어 "피의자도 아닌 참고인 신분인 사람의 자택을 압수수색하는 것은 전례를 찾기 어려운 일"이라며 "의혹이 있다면 수사를 하는 것은 당연하지만 사실상 마무리된 수사를 윤석열 대통령 최측근이 전주지검장으로 가면서 분위기가 180도 바뀌었다"고 주장했다.
-청와대 국정상황실장 출신인 윤 의원은 기자회견 직후 백브리핑에서 "어제 있었던 문재인 전 대통령의 전 사위에 대한 압수수색은 과정에서도 불법적인 행위가 진행됐다"며 "절차와 과정을 전혀 지키지 않았는데 현장에 압수수색을 청구했던 변호인이 이의 제기를 하고 서면으로도 그 사실을 지적했다"고 밝혔다.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>청와대 국정상황실장 출신인 윤 의원은 기자회견 직후 백브리핑에서 "어제 있었던 문재인 전 대통령의 전 사위에 대한 압수수색은 과정에서도 불법적인 행위가 진행됐다"며 "절차와 과정을 전혀 지키지 않았는데 현장에 압수수색을 청구했던 변호인이 이의 제기를 하고 서면으로도 그 사실을 지적했다"고 밝혔다</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>"어제 있었던 문재인 전 대통령의 전 사위에 대한 압수수색은 과정에서도 불법적인 행위가 진행됐다"</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+청와대 국정상황실장 출신인 윤 의원은 기자회견 직후 백브리핑에서 "어제 있었던 문재인 전 대통령의 전 사위에 대한 압수수색은 과정에서도 불법적인 행위가 진행됐다"며 "절차와 과정을 전혀 지키지 않았는데 현장에 압수수색을 청구했던 변호인이 이의 제기를 하고 서면으로도 그 사실을 지적했다"고 밝혔다.
+특히 그는 "당사자 휴대전화가 아닌 노모 휴대전화를, 사용한 지 6년이 지난 휴대전화까지 압수수색까지 하는 것은 정치보복 수사 그 이상도 그 이하도 아니다"며 "특히 아들이 사용하는 태블릿까지 압수수색을 했다고 하는데 대명천지에 이런 일이 있을 수 있나. 망신주기 보복수사로밖에 이해될 수 없다"고 했다.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>청와대 국정상황실장 출신인 윤 의원은 기자회견 직후 백브리핑에서 "어제 있었던 문재인 전 대통령의 전 사위에 대한 압수수색은 과정에서도 불법적인 행위가 진행됐다"며 "절차와 과정을 전혀 지키지 않았는데 현장에 압수수색을 청구했던 변호인이 이의 제기를 하고 서면으로도 그 사실을 지적했다"고 밝혔다  특히 그는 "당사자 휴대전화가 아닌 노모 휴대전화를, 사용한 지 6년이 지난 휴대전화까지 압수수색까지 하는 것은 정치보복 수사 그 이상도 그 이하도 아니다"며 "특히 아들이 사용하는 태블릿까지 압수수색을 했다고 하는데 대명천지에 이런 일이 있을 수 있나. 망신주기 보복수사로밖에 이해될 수 없다"고 했다</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>"어제 있었던 문재인 전 대통령의 전 사위에 대한 압수수색은 과정에서도 불법적인 행위가 진행됐다"  "절차와 과정을 전혀 지키지 않았는데 현장에 압수수색을 청구했던 변호인이 이의 제기를 하고 서면으로도 그 사실을 지적했다"  "당사자 휴대전화가 아닌 노모 휴대전화를, 사용한 지 6년이 지난 휴대전화까지 압수수색까지 하는 것은 정치보복 수사 그 이상도 그 이하도 아니다"  "특히 아들이 사용하는 태블릿까지 압수수색을 했다고 하는데 대명천지에 이런 일이 있을 수 있나. 망신주기 보복수사로밖에 이해될 수 없다"</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25222684</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>20240118</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>‘울산시장 선거개입’ 조국·임종석 관여 의심… 檢, 물증 등 확보 총력</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>검찰이 재수사를 결정한 것은 검찰이 주장한 사실관계가 이처럼 1심에서 상당수 받아들여졌다는 판단에 따른 것이다. 검찰은 재수사를 통해 조 전 장관과 임 전 실장, 이 전 비서관이 하명 수사 등 선거개입 과정에 관여했는지를 집중 수사할 방침이다. 조 전 장관과 임 전 실장이 범행에 가담했다는 물증이나 핵심적인 진술을 확보하는 것이 관건이 될 것으로 보인다.
 문재인정부 청와대 국정상황실장을 지낸 민주당 윤건영 의원은 이날 통화에서 "본인들이 원하는 결론이 나올 때까지 100번이고, 1000번이고 재수사하고 괴롭히겠다는 것"이라고 주장했다. 반면 김기현 전 대표는 이날 울산시의회에서 기자회견을 열고 재수사와 관련해 "인과응보이자 사필귀정"이라고 밝혔다.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>문재인정부 청와대 국정상황실장을 지낸 민주당 윤건영 의원은 이날 통화에서 "본인들이 원하는 결론이 나올 때까지 100번이고, 1000번이고 재수사하고 괴롭히겠다는 것"이라고 주장했다</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>"본인들이 원하는 결론이 나올 때까지 100번이고, 1000번이고 재수사하고 괴롭히겠다는 것"</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/01/18/20240118515637.html</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>20240121</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>“경호 빙자한 폭력” vs “흠집 내기”… ‘강성희 강제 퇴장’에 여야 공방 과열</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>당시 현장에 있었던 윤준병 의원은 "대통령이 앞에 있을 때는 조용히 얘기했는데, 거리가 멀어지니까 들리게 하기 위해 더 크게 얘기했다"며 "그런데 갑자기 대통령이 옆에 있지도 않은데 경호원들이 강 의원 입을 막기 시작해서 사지를 들어 들고 나갔다"고 설명했다. 그는 이어 "국민의 대표자인 국회의원이 정상적으로 얘기할 수 있는 내용을 못하게 막았다"며 "이것은 과잉경호가 아니고 경호를 빙자한 경호처의 완전한 불법 폭력 행위"라고 지적했다.
 문재인정부에서 청와대 국정기획상황실장을 지낸 윤건영 의원은 "대한민국 국민 한 사람이 입이 막혀 사지가 들려 나가면 그 자리에서 그러지 말라고 하는 것이 대통령의 모습"이라며 "역대 정부는 진보든 보수든 경호에 있어 열린 경호를 표방했다. 윤석열정부는 각하 시절로 되돌아가는 것 같아 화가 나고 분통이 터진다"고 말했다.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>문재인정부에서 청와대 국정기획상황실장을 지낸 윤건영 의원은 "대한민국 국민 한 사람이 입이 막혀 사지가 들려 나가면 그 자리에서 그러지 말라고 하는 것이 대통령의 모습"이라며 "역대 정부는 진보든 보수든 경호에 있어 열린 경호를 표방했다. 윤석열정부는 각하 시절로 되돌아가는 것 같아 화가 나고 분통이 터진다"고 말했다</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>"대한민국 국민 한 사람이 입이 막혀 사지가 들려 나가면 그 자리에서 그러지 말라고 하는 것이 대통령의 모습"  "역대 정부는 진보든 보수든 경호에 있어 열린 경호를 표방했다. 윤석열정부는 각하 시절로 되돌아가는 것 같아 화가 나고 분통이 터진다"</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/01/21/20240121508853.html</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>20240121</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>민주당, 강성희 강제퇴장에 "경호 빙자 폭력…尹 사과해야" 총공세</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>그는 "언론은 과잉 경호라고 하는데 이건 엄격한 불법 행위"라며 "경호상 위해라는 것도 완전히 거짓 해명이다. 경호를 빙자해 폭력을 행사한 것으로, 당시 경호 요원 처벌도 수반돼야 한다"고 했다.
-문재인 정부 청와대 국정상황실장 출신인 윤건영 의원은 "오늘 회견 전 문재인 정부 경호처 관련자들에게 확인하니 당시엔 단 한 번도 이런 사례가 없었다고 한다"며 "백번 양보해 행사 진행에 지장이 있었다고 해도 행사 주최 측이나 의전비서관실에서 나섰어야 했다"고 지적했다.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>문재인 정부 청와대 국정상황실장 출신인 윤건영 의원은 "오늘 회견 전 문재인 정부 경호처 관련자들에게 확인하니 당시엔 단 한 번도 이런 사례가 없었다고 한다"며 "백번 양보해 행사 진행에 지장이 있었다고 해도 행사 주최 측이나 의전비서관실에서 나섰어야 했다"고 지적했다</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>"오늘 회견 전 문재인 정부 경호처 관련자들에게 확인하니 당시엔 단 한 번도 이런 사례가 없었다고 한다"  "백번 양보해 행사 진행에 지장이 있었다고 해도 행사 주최 측이나 의전비서관실에서 나섰어야 했다"</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
+문재인 정부 청와대 국정상황실장 출신인 윤건영 의원은 "오늘 회견 전 문재인 정부 경호처 관련자들에게 확인하니 당시엔 단 한 번도 이런 사례가 없었다고 한다"며 "백번 양보해 행사 진행에 지장이 있었다고 해도 행사 주최 측이나 의전비서관실에서 나섰어야 했다"고 지적했다.
+이어 "윤 대통령이 강 의원이 들려 나가는 것을 현장에서 목도하지 않았느냐"며 "그 장면을 봤다면 저지하는 게 대한민국 대통령"이라고 꼬집었다.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>문재인 정부 청와대 국정상황실장 출신인 윤건영 의원은 "오늘 회견 전 문재인 정부 경호처 관련자들에게 확인하니 당시엔 단 한 번도 이런 사례가 없었다고 한다"며 "백번 양보해 행사 진행에 지장이 있었다고 해도 행사 주최 측이나 의전비서관실에서 나섰어야 했다"고 지적했다  이어 "윤 대통령이 강 의원이 들려 나가는 것을 현장에서 목도하지 않았느냐"며 "그 장면을 봤다면 저지하는 게 대한민국 대통령"이라고 꼬집었다</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>"오늘 회견 전 문재인 정부 경호처 관련자들에게 확인하니 당시엔 단 한 번도 이런 사례가 없었다고 한다"  "백번 양보해 행사 진행에 지장이 있었다고 해도 행사 주최 측이나 의전비서관실에서 나섰어야 했다"  "윤 대통령이 강 의원이 들려 나가는 것을 현장에서 목도하지 않았느냐"  "그 장면을 봤다면 저지하는 게 대한민국 대통령"</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/01/21/20240121505322.html</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>20240122</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>민주, ‘강성희 강제퇴장’ 연일 규탄…“2024년 대한민국 맞나”</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>박주민 민주당 원내수석부대표는 21일 국회 원내대표회의실에서 기자간담회를 열고 "당시 영상과 상황을 보면서 과연 이것이 2024년의 대한민국이 맞는지 스스로 계속 반문할 수밖에 없다"며 "저 상황에 다른 대통령을 대입해보면 좋겠다. 민주당은 이 부분에 대해 강력히 문제를 제기할 수밖에 없고, 대통령 사과와 경호처장 경질까지 가야 하는 사안"이라고 말했다. 이날 기자간담회에는 박 원내수석부대표를 비롯해 김수흥·윤건영·윤준병 민주당 의원, 윤영덕 민주당 원내대변인 등이 참석했다.
 윤건영 의원은 "역대 정부는 진보든 보수든 통의 안전을 보장하면서 국민과의 소통을 보장하는 ‘열린 경호’를 표방했다"며 "‘각하 시절’로 되돌아간 것 같아서 대단히 화가 난다"고 했다. 강 의원이 강제 퇴장될 당시 현장에 있던 윤준병 의원도 "폭력 행위가 경호라는 이유로 정당화될 수 있어야 과잉 경호인데 그런 요건을 전혀 충족하지 않는다. 엄격한 불법행위"라고 강조했다.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>윤건영 의원은 "역대 정부는 진보든 보수든 통의 안전을 보장하면서 국민과의 소통을 보장하는 ‘열린 경호’를 표방했다"며 "‘각하 시절’로 되돌아간 것 같아서 대단히 화가 난다"고 했다</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>"역대 정부는 진보든 보수든 통의 안전을 보장하면서 국민과의 소통을 보장하는 ‘열린 경호’를 표방했다"</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2024012201039910272006</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>20240130</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>민주당 복당 간보는 이언주… 홍익표 “불출마” 요구에도 중·성동갑 나가나</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>최근 국민의힘을 탈당한 이언주(사진) 전 의원의 더불어민주당 복당 결심이 늦어지면서 그 배경에 관심이 쏠리고 있다. 친문(친문재인)계를 중심으로 거센 반발이 나오는 가운데 복당 이후 출마 지역구를 놓고도 설왕설래가 이어지는 모습이다.
 이 전 의원은 30일 문화일보와 통화에서 "윤석열 정권이 ‘가짜 보수’라는 걸 절감한 중도층의 표심을 내가 흡수해야 한다"고 주장했다. 이어 그는 "당에서도 무당파의 ‘반윤(반윤석열) 정서’를 대변하는 스피커 역할을 해주길 바라고 있다"고 밝혔다. 하지만 과거 ‘친문 주류’에 반발해 탈당한 후 문재인 정부와도 줄곧 각을 세운 탓에 친문계는 이 전 의원의 복당을 부정적으로 바라보고 있다. 친문 핵심인 윤건영 민주당 의원은 이날 KBS 라디오에 출연해 "나뭇가지가 한쪽으로만 치우치면 부서지기 쉽지 않냐"고 에둘러 비판했다.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>친문 핵심인 윤건영 민주당 의원은 이날 KBS 라디오에 출연해 "나뭇가지가 한쪽으로만 치우치면 부서지기 쉽지 않냐"고 에둘러 비판했다</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>"나뭇가지가 한쪽으로만 치우치면 부서지기 쉽지 않냐"</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2024013001070630173001</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>20240130</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>친문 윤건영 “한동훈의 운동권 청산? 킬러공천 아닌 잡탕공천”</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>친문(친문재인)계 핵심인 윤건영 더불어민주당 의원이 30일 야권의 86 세대 운동권을 겨냥한 한동훈 국민의힘 비상대책위원장의 ‘킬러 공천’을 "잡탕 공천"이라고 비판했다.
+윤 의원은 이날 KBS 라디오에 출연해 "많이 한심하다. 운동권 잡을 게 아니라 물가 잡고 경제 잡는 게 여당이 할 일인데 아직 정신 못 차렸다"며 이같이 지적했다. 윤 의원은 "586 운동권 출신은 국민의힘에도 많이 있다"며 "민주당 586은 청산 대상이고 국민의힘 586은 영입 대상이냐. 왜 그런지 한동훈 위원장이 설명해야 한다"고 했다.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>윤 의원은 이날 KBS 라디오에 출연해 "많이 한심하다. 운동권 잡을 게 아니라 물가 잡고 경제 잡는 게 여당이 할 일인데 아직 정신 못 차렸다"며 이같이 지적했다  윤 의원은 "586 운동권 출신은 국민의힘에도 많이 있다"며 "민주당 586은 청산 대상이고 국민의힘 586은 영입 대상이냐. 왜 그런지 한동훈 위원장이 설명해야 한다"고 했다</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>"많이 한심하다. 운동권 잡을 게 아니라 물가 잡고 경제 잡는 게 여당이 할 일인데 아직 정신 못 차렸다"  "586 운동권 출신은 국민의힘에도 많이 있다"  "민주당 586은 청산 대상이고 국민의힘 586은 영입 대상이냐. 왜 그런지 한동훈 위원장이 설명해야 한다"</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2024013001039930173001</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20240130</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>“운동권·이재명 방탄” vs “尹心·검사공천”… 여야 ‘프레임 전쟁’</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>◆"국민은 윤심·검사공천에 더 관심"
-민주당에서는 이날 한 위원장의 운동권 청산론에 대해 "집권여당은 운동권 잡을 게 아니라 물가 잡고 경제 잡아야 한다"는 비판이 나왔다. 국민대 총학생회장을 지낸 윤건영 의원은 KBS 라디오에서 이같이 말하며 "소위 586 운동권 출신은 국민의힘에도 많이 있다. 민주당 586은 청산대상이고 국민의힘 586은 영입 대상이냐"고 지적했다. ‘국민의힘 586’이라고 한 건 대학시절 운동권 이력이 있는 하태경 의원, 원희룡 전 장관 등을 가리킨 것이다.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>국민대 총학생회장을 지낸 윤건영 의원은 KBS 라디오에서 이같이 말하며 "소위 586 운동권 출신은 국민의힘에도 많이 있다. 민주당 586은 청산대상이고 국민의힘 586은 영입 대상이냐"고 지적했다</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>"소위 586 운동권 출신은 국민의힘에도 많이 있다. 민주당 586은 청산대상이고 국민의힘 586은 영입 대상이냐"</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>http://www.segye.com/content/html/2024/01/30/20240130515341.html</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>격해지는 ‘친문 vs 친명’ 갈등… 고민정·윤건영 “필패의 길”</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>더불어민주당 내 친명(친이재명)계의 친문(친문재인)계를 향한 공격이 거세지는 것과 관련해 고민정 최고위원과 윤건영 의원은 31일 "민주당 필패의 길"이라고 비판했다. 대표적인 친문계 인사인 고 최고위원과 윤 의원은 친명계의 공격을 "어리석은 행동", "있을 수 없는 일"이라고 지적하며 ‘친문vs친명’ 구도로는 이번 총선에서 이길 수 없다고 강조했다.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>대표적인 친문계 인사인 고 최고위원과 윤 의원은 친명계의 공격을 "어리석은 행동", "있을 수 없는 일"이라고 지적하며 ‘친문vs친명’ 구도로는 이번 총선에서 이길 수 없다고 강조했다  대표적인 친문계 인사인 고 최고위원과 윤 의원은 친명계의 공격을 "어리석은 행동", "있을 수 없는 일"이라고 지적하며 ‘친문vs친명’ 구도로는 이번 총선에서 이길 수 없다고 강조했다</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>"어리석은 행동"</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2024/01/30/20240130516596.html</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>20240130</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>격해지는 ‘친문 vs 친명’ 갈등… 고민정·윤건영 “필패의 길”</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>더불어민주당 내 친명(친이재명)계의 친문(친문재인)계를 향한 공격이 거세지는 것과 관련해 고민정 최고위원과 윤건영 의원은 31일 "민주당 필패의 길"이라고 비판했다. 대표적인 친문계 인사인 고 최고위원과 윤 의원은 친명계의 공격을 "어리석은 행동", "있을 수 없는 일"이라고 지적하며 ‘친문vs친명’ 구도로는 이번 총선에서 이길 수 없다고 강조했다.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>더불어민주당 내 친명(친이재명)계의 친문(친문재인)계를 향한 공격이 거세지는 것과 관련해 고민정 최고위원과 윤건영 의원은 31일 "민주당 필패의 길"이라고 비판했다</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>"민주당 필패의 길"</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>그는 이어 "아직은 저한테 출마하지 말라고 얘기를 안 하시는데, 아마 친문 대 친명으로 격화되는 것을 그분들도 원치 않아 하기 때문에 저항하는 것"이라며 "그 프레임에 빠지는 것은 민주당이 필패하는 길이기 때문에 별로 옳은 방향은 아니라고 생각한다"고 강조했다.
+윤 의원도 이날 KBS라디오 ‘전격시사’에 출연해 친명계의 ‘자객 출마’, ‘친문계 밀어내기’ 논란에 대해 "상식적으로 있을 수 없는 일"이라고 했다.
+윤 의원은 "선거에서 야당의 유일한 힘은 단합이고 단결"이라며 "친문이다, 친명이다 가르는 뺄셈 정치로는 선거에서 이길 수가 없다"고 목소리를 높였다. 그는 이어 "뺄셈 정치보다는 덧셈 정치만이 윤석열정부의 일방독주를 멈출 수 있다"며 "민주당을 중심으로 통합하고 단결하는 게 중요하다"고 말했다.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>윤 의원도 이날 KBS라디오 ‘전격시사’에 출연해 친명계의 ‘자객 출마’, ‘친문계 밀어내기’ 논란에 대해 "상식적으로 있을 수 없는 일"이라고 했다  윤 의원도 이날 KBS라디오 ‘전격시사’에 출연해 친명계의 ‘자객 출마’, ‘친문계 밀어내기’ 논란에 대해 "상식적으로 있을 수 없는 일"이라고 했다  윤 의원은 "선거에서 야당의 유일한 힘은 단합이고 단결"이라며 "친문이다, 친명이다 가르는 뺄셈 정치로는 선거에서 이길 수가 없다"고 목소리를 높였다  그는 이어 "뺄셈 정치보다는 덧셈 정치만이 윤석열정부의 일방독주를 멈출 수 있다"며 "민주당을 중심으로 통합하고 단결하는 게 중요하다"고 말했다</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>"상식적으로 있을 수 없는 일"  "선거에서 야당의 유일한 힘은 단합이고 단결"  "친문이다, 친명이다 가르는 뺄셈 정치로는 선거에서 이길 수가 없다"  "뺄셈 정치보다는 덧셈 정치만이 윤석열정부의 일방독주를 멈출 수 있다"  "민주당을 중심으로 통합하고 단결하는 게 중요하다"</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/01/30/20240130516596.html</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>20240131</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>동아일보</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>[단독]野, 임종석 도전 중-성동갑에 ‘찐명’ 조상호 투입 저울질</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>문재인 전 대통령이 28일 노무현재단 주최로 열린 행사에서 정부 여당의 ‘서울 메가시티’ 공약을 두고 "몰상식한 정책"이라고 작심 비판한 것을 두고도 친문 세력의 존재감 과시라는 해석이 나온다. 친문 진영 내에서는 공천 학살에 대한 우려가 커지면서 문 전 대통령의 역할을 요구하는 목소리가 커지고 있다.
-친명계를 향한 친문계의 공개 반발도 이어졌다. 문재인 정부 당시 청와대 대변인을 지냈던 고민정 최고위원은 이날 SBS 라디오에서 임 전 실장의 불출마를 요구한 친명계 김지호 당 대표실 정무조정부실장을 향해 "친문은 안 된다는 프레임은 굉장히 어리석은 행동"이라고 비판했다. 문재인 정부 청와대 국정상황실장을 지낸 민주당 윤건영 의원도 이날 KBS 라디오에서 "친문-친명 가르는 뺄셈 정치로는 선거에서 이길 수가 없다"고 했다.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>문재인 정부 청와대 국정상황실장을 지낸 민주당 윤건영 의원도 이날 KBS 라디오에서 "친문-친명 가르는 뺄셈 정치로는 선거에서 이길 수가 없다"고 했다</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>"친문-친명 가르는 뺄셈 정치로는 선거에서 이길 수가 없다"</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://www.donga.com/news/Politics/article/all/20240130/123307793/1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>‘허위 인턴 등록’ 윤건영 1심 선고…검찰, 벌금 500만원 구형 [사사건건]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>검찰은 지난해 11월 열린 결심공판에서 윤 의원에게 벌금 500만원을 구형했다. 검찰 측은 "이 사건 범행의 본질은 윤 의원이 개인적으로 관리하는 사적 단체의 운영비 등을 마치 국회 인턴에게 지급하는 것처럼 사무처에 허위등록해 나랏돈을 편취한 사안으로 죄질이 좋지 않다"고 구형 이유를 밝혔다.
+반면 윤 의원은 "사건 당시 나는 백 전 의원과 인턴 채용 문제 관련해 단 한 마디의 대화도 나눈 적이 없다"며 "현역 재선 의원이었던 백 전 의원과 작은 연구소 기획실장이었던 내가 500만원 편취를 위해 국가를 상대로 사기 범행을 저지를 이유가 없다"며 거듭 혐의를 부인했다.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>반면 윤 의원은 "사건 당시 나는 백 전 의원과 인턴 채용 문제 관련해 단 한 마디의 대화도 나눈 적이 없다"며 "현역 재선 의원이었던 백 전 의원과 작은 연구소 기획실장이었던 내가 500만원 편취를 위해 국가를 상대로 사기 범행을 저지를 이유가 없다"며 거듭 혐의를 부인했다</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>"사건 당시 나는 백 전 의원과 인턴 채용 문제 관련해 단 한 마디의 대화도 나눈 적이 없다"  "현역 재선 의원이었던 백 전 의원과 작은 연구소 기획실장이었던 내가 500만원 편취를 위해 국가를 상대로 사기 범행을 저지를 이유가 없다"</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2024/01/31/20240131507356.html</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20240131</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>국민일보</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>‘의원실 인턴 허위 등록’ 윤건영 의원, 벌금 500만원</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>검찰은 윤 의원과 백 전 의원에게 각각 벌금 300만원을 약식 기소했다. 법원은 2021년 11월 윤 의원과 백 전 의원에게 벌금 500만원의 약식명령을 내렸다.
+백 전 의원은 이를 받아들였지만, 윤 의원은 약식명령에 불복해 정식 재판을 청구했다. 그는 지난해 11월 결심공판에서 "인턴 채용 과정에서 제가 한 일은 의원실의 추천을 받아 김씨에게 (일 할) 생각이 있냐고 물어본 게 전부"며 "사건 당시 백 전 의원과 인턴 채용에 관해 한마디도 나눈 적이 없다"고 혐의를 부인했다.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>그는 지난해 11월 결심공판에서 "인턴 채용 과정에서 제가 한 일은 의원실의 추천을 받아 김씨에게 (일 할) 생각이 있냐고 물어본 게 전부"며 "사건 당시 백 전 의원과 인턴 채용에 관해 한마디도 나눈 적이 없다"고 혐의를 부인했다</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>"인턴 채용 과정에서 제가 한 일은 의원실의 추천을 받아 김씨에게 (일 할) 생각이 있냐고 물어본 게 전부"</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://news.kmib.co.kr/article/view.asp?arcid=0019121024&amp;code=61121311&amp;cp=kd</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>20240208</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>‘조그마한 백’ KBS 앵커에 “몸 사렸다”는 민주…고민정 “참 비루하다”</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>고 최고위원은 이를 두고 "참 비루하다"고 어이없어했다. 대통령 앞에서 단어 하나 제대로 꺼내지 못하는 앵커 모습에 KBS 조직원들이 자괴감을 느꼈을 거라며 "수신료를 내고 계신 국민들도 이게 공영방송이 맞나 생각했을 것 같아서 참 씁쓸했다"고 그는 강조했다. 이와 함께 ‘매정하게 끊지 못했다’던 윤 대통령 표현에도 "매정하게 끊지 못해서 뇌물인 것"이라며 "그걸로 죄의 대가를 치르는 것"이라고 고 최고위원은 부각했다.
 같은 당 윤건영 의원도 이날 MBC 라디오 ‘김종배의 시선집중’에 나와 "오히려 국민의 분노를 조장하는 불난 집에 기름을 끼얹는 그런 대담인 것 같다"고 평가절하했다. 김 여사 명품백 수수 의혹을 ‘정치 공작’으로 규정하는 여당과 대통령실이 국민을 우습게 본다는 주장도 폈다. 윤 의원은 "국민의 한 사람으로서 대통령이 사과 정도는 할 것 같았다"며 "사과의 시옷자도 꺼내지 않고, ‘매정하게 하지 못했다’고 이야기하는데 죄를 짓고 아쉽다고 하면 모든 게 끝나느냐"고 반응했다.</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>같은 당 윤건영 의원도 이날 MBC 라디오 ‘김종배의 시선집중’에 나와 "오히려 국민의 분노를 조장하는 불난 집에 기름을 끼얹는 그런 대담인 것 같다"고 평가절하했다</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>"오히려 국민의 분노를 조장하는 불난 집에 기름을 끼얹는 그런 대담인 것 같다"</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>윤 의원은 "국민의 한 사람으로서 대통령이 사과 정도는 할 것 같았다"며 "사과의 시옷자도 꺼내지 않고, ‘매정하게 하지 못했다’고 이야기하는데 죄를 짓고 아쉽다고 하면 모든 게 끝나느냐"고 반응했다</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>"사과의 시옷자도 꺼내지 않고, ‘매정하게 하지 못했다’고 이야기하는데 죄를 짓고 아쉽다고 하면 모든 게 끝나느냐"</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/02/08/20240208503532.html</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>20240208</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>중앙일보</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>"진솔" 반응 속 "총선 악재 못 털었다"…여권도 엇갈린 尹신년대담</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>더불어민주당은 8일 윤 대통령을 맹비난했다. 홍익표 원내대표는 정책조정회의에서 "반성 한마디 없이 변명으로 시작해 자기 합리화로 끝낸 빈껍데기 대담이었다"며 "대통령이 받은 선물과 수백억을 낭비해 꾸민 집무실 자랑만 늘어놓은 것"이라고 비판했다. 이어 "뇌물성 명품백 불법 수수 문제를 ‘아쉽다’고 넘어가려는 모습은 국민과 법 위에 군림하는 오만함"이라고 덧붙였다.
 윤건영 의원도 MBC 라디오에서 "어떻게 명품백을 받은 게 정치공작이 될 수 있느냐. 불난 집에 기름을 끼얹는 대담이었다"고 평가절하했다. 고민정 최고위원도 BBS 라디오에 출연해 "부탁과 선물을 매정하게 못 끊으면 그게 뇌물인 거고, 그걸로 죄의 대가를 치르는 것"이라고 말했다.</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>윤건영 의원도 MBC 라디오에서 "어떻게 명품백을 받은 게 정치공작이 될 수 있느냐. 불난 집에 기름을 끼얹는 대담이었다"고 평가절하했다</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>"어떻게 명품백을 받은 게 정치공작이 될 수 있느냐. 불난 집에 기름을 끼얹는 대담이었다"</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>https://www.joongang.co.kr/article/25227792</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>20240208</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>동아일보</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>“임종석은 안되고, 추미애는 되나” 들끓는 친문…공천 앞두고 ‘명문 내전’ 격화</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>당내 친문 의원들도 들끓었다. 문재인 청와대 출신인 고민정 최고위원은 일부 친명 지도부 의원들이 5일 비공개 회의를 열고 임 전 실장을 비롯한 문재인 정부 장관 출신 중진 의원들의 거취를 논의한 것을 두고 "그날(5일)은 저희(당 지도부)가 광주에 있을 때였다"며 "우리가 광주에서 참배를 하고 야권 대연합을 이루겠다고 이 대표가 발표하던 그 시점에 누군가는 만나서 친문 인사들은 배제하겠다는 논의를 한 것이냐"고 목소리를 높였다. 고 최고위원은 당 최고위원들의 단체 메시지방에서도 "나 없이 친명 의원들이 회의를 한 것이냐"는 취지로 항의한 것으로 전해졌다. 고 의원은 이날 "친문계의 대표적 인물 중 하나가 저인데 저도 총선 나오지 말라는 이야기인가"라고도 했다.
 역시 문재인 청와대 출신인 윤건영 의원도 "이재명은 되고 문재인은 안 되는 상황이 이상하다"며 "친명은 되고 친문은 안 된다, 그래 가지고 총선을 이길 수 있겠느냐"고 했다. 이어 이 대표를 향해서 "주위의 사람들이 무엇이라고 하든 본인들께서 ‘명문 정당’(이 대표와 문 전 대통령의 이름을 따서 만든 표현)과 용광로 정치를 말씀하신 만큼 지금의 이 사안을 정리할 수 있는 건 이 대표밖에 없다"고 했다.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>역시 문재인 청와대 출신인 윤건영 의원도 "이재명은 되고 문재인은 안 되는 상황이 이상하다"며 "친명은 되고 친문은 안 된다, 그래 가지고 총선을 이길 수 있겠느냐"고 했다</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>"이재명은 되고 문재인은 안 되는 상황이 이상하다"  "친명은 되고 친문은 안 된다, 그래 가지고 총선을 이길 수 있겠느냐"</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>이어 이 대표를 향해서 "주위의 사람들이 무엇이라고 하든 본인들께서 ‘명문 정당’(이 대표와 문 전 대통령의 이름을 따서 만든 표현)과 용광로 정치를 말씀하신 만큼 지금의 이 사안을 정리할 수 있는 건 이 대표밖에 없다"고 했다</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>"주위의 사람들이 무엇이라고 하든 본인들께서 ‘명문 정당’(이 대표와 문 전 대통령의 이름을 따서 만든 표현)과 용광로 정치를 말씀하신 만큼 지금의 이 사안을 정리할 수 있는 건 이 대표밖에 없다"</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>https://www.donga.com/news/Politics/article/all/20240208/123454754/1</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>20240208</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>‘尹정권 탄생 책임론’ 갈등 점입가경… 친문 “이재명이 직접 정리하라” 압박</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>이 대표가 직접 나서서 이 문제를 정리해야 한다는 목소리가 이날 친문계 의원들로부터 나온 것도 이런 맥락에서다. 고민정 의원은 BBS라디오에서 "이 대표도 본인이 한 말에 대해 책임지려는 노력을 많이 하신다"며 "주위 사람이 뭐라고 하든 본인들께서 명문 정당과 용광로 정치를 말씀하신 만큼 지금 이 사안을 정리할 수 있는 건 (이재명) 대표밖에 안 계신다. 좀 정리를 해주셨으면 좋겠다"고 말했다.
 문재인정부 청와대 국정상황실장 출신인 윤건영 의원도 MBC라디오에서 "당 지도부가 나서서 정리해야 되는 것"이라며 "총선이란 건 우리가 모을 수 있는 모든 힘들을 하나로 모아내는 게 우선인데 힘이 잘 모이지 않지 않냐. 그런데 그런 걸 왜 두고 보냐는 것"이라고 지적했다. 그는 "야당의 힘은 단결과 단합이다. 그걸 해치는 말이 나오면 부분적으로 ‘이건 잘못된 거다’라고 하든지 정리를 해주셔야 된다"고도 했다.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>문재인정부 청와대 국정상황실장 출신인 윤건영 의원도 MBC라디오에서 "당 지도부가 나서서 정리해야 되는 것"이라며 "총선이란 건 우리가 모을 수 있는 모든 힘들을 하나로 모아내는 게 우선인데 힘이 잘 모이지 않지 않냐. 그런데 그런 걸 왜 두고 보냐는 것"이라고 지적했다</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>문재인정부 청와대 국정상황실장 출신인 윤건영 의원도 MBC라디오에서 "당 지도부가 나서서 정리해야 되는 것"이라며 "총선이란 건 우리가 모을 수 있는 모든 힘들을 하나로 모아내는 게 우선인데 힘이 잘 모이지 않지 않냐. 그런데 그런 걸 왜 두고 보냐는 것"이라고 지적했다  그는 "야당의 힘은 단결과 단합이다. 그걸 해치는 말이 나오면 부분적으로 ‘이건 잘못된 거다’라고 하든지 정리를 해주셔야 된다"고도 했다</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>"당 지도부가 나서서 정리해야 되는 것"  "총선이란 건 우리가 모을 수 있는 모든 힘들을 하나로 모아내는 게 우선인데 힘이 잘 모이지 않지 않냐. 그런데 그런 걸 왜 두고 보냐는 것"</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/02/08/20240208510084.html</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>20240208</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>윤건영 “尹 대통령, ‘김건희 명품백’ 사과 없어…국민 분노 조장”</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>윤건영 더불어민주당 의원은 8일 윤석열 대통령이 KBS 신년 대담에서 김건희 여사의 명품백 수수 논란에 대해 사과하지 않은 것에 대해 "인식의 차이가 너무 큰 것 같다"고 말했다.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>윤건영 더불어민주당 의원은 8일 윤석열 대통령이 KBS 신년 대담에서 김건희 여사의 명품백 수수 논란에 대해 사과하지 않은 것에 대해 "인식의 차이가 너무 큰 것 같다"고 말했다</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>"인식의 차이가 너무 큰 것 같다"</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>윤건영 더불어민주당 의원은 8일 윤석열 대통령이 KBS 신년 대담에서 김건희 여사의 명품백 수수 논란에 대해 사과하지 않은 것에 대해 "인식의 차이가 너무 큰 것 같다"고 말했다.
+윤 의원은 이날 오전 MBC라디오 ‘김종배의 시선집중’에 출연해 "마치 다른 행성에서 오신 것 같다는 느낌이 드는데 어떻게 명품백을 받은 게 정치공작이 될 수 있는지 이해가 안 된다"고 밝혔다. 그는 "뇌물을 받든 폭행을 하든 몰카에 찍히면 그게 다 면죄가 되는 건 아니지 않냐"며 "국민 대다수가 아는 상식을 왜 대통령과 국민의힘만 모르고 저렇게 얘기하는지 이해가 안 된다"고 주장했다.
+그는 "국민의 한 사람으로서 최소한 대통령이 사과 정도는 할 것 같았는데 사과의 시옷 자도 안 꺼내더라"며 "오히려 국민들의 분노를 조장하는, 불난 집에 기름을 끼얹는 그런 대담"이라고 언급했다. ‘민주당 정부 당시 영부인 의혹이 더 많았다’고 한 한동훈 국민의힘 비상대책위원장의 발언에 대해선 "그 병이 도진 것 같다"며 "그냥 두루뭉술하게 전임 정부는 더 했다 카더라 이렇게 할 일은 아닌 것 같다"고 설명했다.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>윤 의원은 이날 오전 MBC라디오 ‘김종배의 시선집중’에 출연해 "마치 다른 행성에서 오신 것 같다는 느낌이 드는데 어떻게 명품백을 받은 게 정치공작이 될 수 있는지 이해가 안 된다"고 밝혔다  그는 "뇌물을 받든 폭행을 하든 몰카에 찍히면 그게 다 면죄가 되는 건 아니지 않냐"며 "국민 대다수가 아는 상식을 왜 대통령과 국민의힘만 모르고 저렇게 얘기하는지 이해가 안 된다"고 주장했다  그는 "국민의 한 사람으로서 최소한 대통령이 사과 정도는 할 것 같았는데 사과의 시옷 자도 안 꺼내더라"며 "오히려 국민들의 분노를 조장하는, 불난 집에 기름을 끼얹는 그런 대담"이라고 언급했다</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>"마치 다른 행성에서 오신 것 같다는 느낌이 드는데 어떻게 명품백을 받은 게 정치공작이 될 수 있는지 이해가 안 된다"  "뇌물을 받든 폭행을 하든 몰카에 찍히면 그게 다 면죄가 되는 건 아니지 않냐"  "국민 대다수가 아는 상식을 왜 대통령과 국민의힘만 모르고 저렇게 얘기하는지 이해가 안 된다"  "국민의 한 사람으로서 최소한 대통령이 사과 정도는 할 것 같았는데 사과의 시옷 자도 안 꺼내더라"  "오히려 국민들의 분노를 조장하는, 불난 집에 기름을 끼얹는 그런 대담"</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2024020801039910021003</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>20240208</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>문화일보</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>윤건영 “尹 대통령, ‘김건희 명품백’ 사과 없어…국민 분노 조장”</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>윤 의원은 이날 오전 MBC라디오 ‘김종배의 시선집중’에 출연해 "마치 다른 행성에서 오신 것 같다는 느낌이 드는데 어떻게 명품백을 받은 게 정치공작이 될 수 있는지 이해가 안 된다"고 밝혔다. 그는 "뇌물을 받든 폭행을 하든 몰카에 찍히면 그게 다 면죄가 되는 건 아니지 않냐"며 "국민 대다수가 아는 상식을 왜 대통령과 국민의힘만 모르고 저렇게 얘기하는지 이해가 안 된다"고 주장했다.
+그는 "국민의 한 사람으로서 최소한 대통령이 사과 정도는 할 것 같았는데 사과의 시옷 자도 안 꺼내더라"며 "오히려 국민들의 분노를 조장하는, 불난 집에 기름을 끼얹는 그런 대담"이라고 언급했다. ‘민주당 정부 당시 영부인 의혹이 더 많았다’고 한 한동훈 국민의힘 비상대책위원장의 발언에 대해선 "그 병이 도진 것 같다"며 "그냥 두루뭉술하게 전임 정부는 더 했다 카더라 이렇게 할 일은 아닌 것 같다"고 설명했다.
+윤 의원은 "한 위원장이 전임 대통령의 영부인 건을 끄집어내고, 김혜경 여사의 법카 문제도 끄집어내는 건 총선을 앞두고 흙탕물 전쟁으로 가자는 것"이라며 "한 위원장이 정치를 이상하게 하는 것 같다"고 했다. 윤 의원은 또 윤 대통령이 대통령 배우자의 일정 및 수행 등 활동을 담당하는 기구인 제2부속실 설치를 검토하겠다고 밝힌 데 대해 "오히려 더 문제를 심각하게 키우는 것 아니냐는 걱정도 있다"고 말했다.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>‘민주당 정부 당시 영부인 의혹이 더 많았다’고 한 한동훈 국민의힘 비상대책위원장의 발언에 대해선 "그 병이 도진 것 같다"며 "그냥 두루뭉술하게 전임 정부는 더 했다 카더라 이렇게 할 일은 아닌 것 같다"고 설명했다  윤 의원은 "한 위원장이 전임 대통령의 영부인 건을 끄집어내고, 김혜경 여사의 법카 문제도 끄집어내는 건 총선을 앞두고 흙탕물 전쟁으로 가자는 것"이라며 "한 위원장이 정치를 이상하게 하는 것 같다"고 했다</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>"그 병이 도진 것 같다"  "그냥 두루뭉술하게 전임 정부는 더 했다 카더라 이렇게 할 일은 아닌 것 같다"  "한 위원장이 전임 대통령의 영부인 건을 끄집어내고, 김혜경 여사의 법카 문제도 끄집어내는 건 총선을 앞두고 흙탕물 전쟁으로 가자는 것"  "한 위원장이 정치를 이상하게 하는 것 같다"</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2024020801039910021003</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20240208</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>윤건영 “尹 대통령, ‘김건희 명품백’ 사과 없어…국민 분노 조장”</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>그는 "국민의 한 사람으로서 최소한 대통령이 사과 정도는 할 것 같았는데 사과의 시옷 자도 안 꺼내더라"며 "오히려 국민들의 분노를 조장하는, 불난 집에 기름을 끼얹는 그런 대담"이라고 언급했다. ‘민주당 정부 당시 영부인 의혹이 더 많았다’고 한 한동훈 국민의힘 비상대책위원장의 발언에 대해선 "그 병이 도진 것 같다"며 "그냥 두루뭉술하게 전임 정부는 더 했다 카더라 이렇게 할 일은 아닌 것 같다"고 설명했다.
+윤 의원은 "한 위원장이 전임 대통령의 영부인 건을 끄집어내고, 김혜경 여사의 법카 문제도 끄집어내는 건 총선을 앞두고 흙탕물 전쟁으로 가자는 것"이라며 "한 위원장이 정치를 이상하게 하는 것 같다"고 했다. 윤 의원은 또 윤 대통령이 대통령 배우자의 일정 및 수행 등 활동을 담당하는 기구인 제2부속실 설치를 검토하겠다고 밝힌 데 대해 "오히려 더 문제를 심각하게 키우는 것 아니냐는 걱정도 있다"고 말했다.
+그는 "지금 용산 대통령실에서 ‘왕 중의 왕’은 김건희 여사라는 시중의 말이 있다"며 "제2부속실을 만든다는 것은 김 여사의 활동을 보다 체계적으로 지원하는 의미"라고 해석하기도 했다. 윤 의원은 진행자가 ‘김 여사가 앞으로 어떤 행보를 보여야 하느냐’고 묻자 "명확하게 잘못했다고 하면서 새롭게 출발하든지 자숙해야 한다"며 "김 여사가 공개 활동을 줄이지 않을 것 같다. 곧 나오려고 (대통령이) 이런 대담을 하신 게 아닌가"라고 전망했다.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>윤 의원은 또 윤 대통령이 대통령 배우자의 일정 및 수행 등 활동을 담당하는 기구인 제2부속실 설치를 검토하겠다고 밝힌 데 대해 "오히려 더 문제를 심각하게 키우는 것 아니냐는 걱정도 있다"고 말했다  그는 "지금 용산 대통령실에서 ‘왕 중의 왕’은 김건희 여사라는 시중의 말이 있다"며 "제2부속실을 만든다는 것은 김 여사의 활동을 보다 체계적으로 지원하는 의미"라고 해석하기도 했다</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>"오히려 더 문제를 심각하게 키우는 것 아니냐는 걱정도 있다"  "지금 용산 대통령실에서 ‘왕 중의 왕’은 김건희 여사라는 시중의 말이 있다"  "제2부속실을 만든다는 것은 김 여사의 활동을 보다 체계적으로 지원하는 의미"</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>http://www.munhwa.com/news/view.html?no=2024020801039910021003</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20240208</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>윤건영 “尹 대통령, ‘김건희 명품백’ 사과 없어…국민 분노 조장”</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>윤 의원은 "한 위원장이 전임 대통령의 영부인 건을 끄집어내고, 김혜경 여사의 법카 문제도 끄집어내는 건 총선을 앞두고 흙탕물 전쟁으로 가자는 것"이라며 "한 위원장이 정치를 이상하게 하는 것 같다"고 했다. 윤 의원은 또 윤 대통령이 대통령 배우자의 일정 및 수행 등 활동을 담당하는 기구인 제2부속실 설치를 검토하겠다고 밝힌 데 대해 "오히려 더 문제를 심각하게 키우는 것 아니냐는 걱정도 있다"고 말했다.
 그는 "지금 용산 대통령실에서 ‘왕 중의 왕’은 김건희 여사라는 시중의 말이 있다"며 "제2부속실을 만든다는 것은 김 여사의 활동을 보다 체계적으로 지원하는 의미"라고 해석하기도 했다. 윤 의원은 진행자가 ‘김 여사가 앞으로 어떤 행보를 보여야 하느냐’고 묻자 "명확하게 잘못했다고 하면서 새롭게 출발하든지 자숙해야 한다"며 "김 여사가 공개 활동을 줄이지 않을 것 같다. 곧 나오려고 (대통령이) 이런 대담을 하신 게 아닌가"라고 전망했다.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>윤 의원은 진행자가 ‘김 여사가 앞으로 어떤 행보를 보여야 하느냐’고 묻자 "명확하게 잘못했다고 하면서 새롭게 출발하든지 자숙해야 한다"며 "김 여사가 공개 활동을 줄이지 않을 것 같다. 곧 나오려고 (대통령이) 이런 대담을 하신 게 아닌가"라고 전망했다</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>"명확하게 잘못했다고 하면서 새롭게 출발하든지 자숙해야 한다"  "김 여사가 공개 활동을 줄이지 않을 것 같다. 곧 나오려고 (대통령이) 이런 대담을 하신 게 아닌가"</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>http://www.munhwa.com/news/view.html?no=2024020801039910021003</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>20240209</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>조선일보</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>韓 “대통령, 진솔한 생각 말해” 野 “반성 없는 빈껍데기 대담”</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>◇야당 "변명, 빈껍데기 대담"
-민주당은 윤 대통령의 신년 대담에 대해 "대통령실이 설 연휴 전에 ‘명품백 의혹 끊어내기’를 노렸지만 오히려 설 민심에 비상이 걸렸을 것"이라고 했다. 고민정 최고위원은 BBS라디오에서 "김건희 여사의 명품백 수수에 사과조차 없었고, 심지어 매정하게 끊지 못한 게 문제라 했다"며 "매정하게 끊지 못해서, 그게 뇌물인 것"이라고 했다. 윤건영 의원은 "마치 다른 행성에서 온 것 같다는 그런 느낌이 들었다"고 했다. 박성준 대변인은 이번 대담에서 ‘명품백’이 아닌 ‘조그마한 백’ ‘파우치’ 등의 용어가 사용된 데 대해 "파우치라고 우기면 뇌물이 아니냐, 뻔뻔함에 혀를 내두를 수밖에 없다"고 했다. 홍익표 원내대표는 "책임은 박민 KBS 사장에게 있다"고 했다.</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>윤건영 의원은 "마치 다른 행성에서 온 것 같다는 그런 느낌이 들었다"고 했다</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>"마치 다른 행성에서 온 것 같다는 그런 느낌이 들었다"</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://www.chosun.com/politics/politics_general/2024/02/09/HZICB2665FFENKPAQ5DJEFQGK4/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>동아일보</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>임종석 “친명, 더 가면 국민 용서 못받아” 불출마 압박에 반격</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>당내 친문 의원들도 들끓었다. 문재인 청와대 출신인 고민정 최고위원은 일부 친명 지도부 의원들이 5일 비공개 회의를 열고 임 전 실장을 비롯한 문재인 정부 장관 출신 중진 의원들의 거취를 논의한 것을 두고 "그날(5일)은 저희(당 지도부)가 광주에 있을 때였다"며 "우리가 광주에서 참배를 하고 야권 대연합을 이루겠다고 이 대표가 발표하던 그 시점에 누군가는 만나서 친문 인사들은 배제하겠다는 논의를 한 것이냐"고 목소리를 높였다. 고 최고위원은 당 최고위원들의 단체 메시지방에서도 "나 없이 친명 의원들이 회의를 한 것이냐"는 취지로 항의한 것으로 전해졌다. 고 의원은 이날 "친문계의 대표적 인물 중 하나가 저인데 저도 총선 나오지 말라는 이야기인가"라고도 했다.
+역시 문재인 청와대 출신인 윤건영 의원도 "이재명은 되고 문재인은 안 되는 상황이 이상하다"며 "친명은 되고 친문은 안 된다, 그래 가지고 총선을 이길 수 있겠느냐"고 했다. 이어 이 대표를 향해 "주위의 사람들이 무엇이라고 하든 본인들께서 ‘명문 정당’(이 대표와 문 전 대통령의 이름을 따서 만든 표현)과 용광로 정치를 말씀하신 만큼 지금의 이 사안을 정리할 수 있는 건 이 대표밖에 없다"고 했다.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>역시 문재인 청와대 출신인 윤건영 의원도 "이재명은 되고 문재인은 안 되는 상황이 이상하다"며 "친명은 되고 친문은 안 된다, 그래 가지고 총선을 이길 수 있겠느냐"고 했다</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>"이재명은 되고 문재인은 안 되는 상황이 이상하다"</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.donga.com/news/Politics/article/all/20240208/123457346/1</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>20240209</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>文·明 충돌 중심에 선 임종석… “더 나가면 용서 못 받아” 반격</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>친명으로 꼽히는 김지호 당대표실 정무조정부실장은 지난달 29일 언론인터뷰에서 "임 전 실장 정도의 인지도면 용산 같은 곳에 출마해야 되지 않았나"라며 "(임 전 실장이) 성동구에 등기를 쳤냐고 항의하시는 분도 계신다"며 노골적으로 비난하기도 했다.
 친문계는 임 전 실장을 두둔했다. 고민정 최고위원은 이날 BBS라디오에서 "윤석열 정권 탄생은 민주당이 패배했기 때문인데, 민주당 모두의 책임"이라고 주장했다. 윤건영 의원은 MBC라디오에서 "야당의 힘은 단결과 단합"이라며 "이 대표든 지도부든 (상황을) 정리해줘야 한다"고 말했다.</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>윤건영 의원은 MBC라디오에서 "야당의 힘은 단결과 단합"이라며 "이 대표든 지도부든 (상황을) 정리해줘야 한다"고 말했다</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>"야당의 힘은 단결과 단합"  "이 대표든 지도부든 (상황을) 정리해줘야 한다"</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>"이 대표든 지도부든 (상황을) 정리해줘야 한다"</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>https://www.kmib.co.kr/article/view.asp?arcid=0924343558&amp;code=11131100</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>20240214</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>국민일보</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>윤건영 ‘北, 대통령실 해킹’에 “대한민국 망신…진상 파악할 것”</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>윤석열 대통령의 지난해 11월 영국 국빈방문 중 대통령실 행정관 이메일이 북한으로부터 해킹당한 사실이 드러나자 더불어민주당에서 비판이 쏟아졌다.
-국회 정보위원회 야당 간사인 윤건영 민주당 의원은 14일 페이스북에 "이 해킹으로 대통령의 순방 세부 일정, 메시지 등을 도둑 맞았다니 어처구니가 없다"며 "대한민국 망신은 용산 대통령실이 다 시키고 있다"고 지적했다.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>국회 정보위원회 야당 간사인 윤건영 민주당 의원은 14일 페이스북에 "이 해킹으로 대통령의 순방 세부 일정, 메시지 등을 도둑 맞았다니 어처구니가 없다"며 "대한민국 망신은 용산 대통령실이 다 시키고 있다"고 지적했다</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>"이 해킹으로 대통령의 순방 세부 일정, 메시지 등을 도둑 맞았다니 어처구니가 없다"  "대한민국 망신은 용산 대통령실이 다 시키고 있다"</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+국회 정보위원회 야당 간사인 윤건영 민주당 의원은 14일 페이스북에 "이 해킹으로 대통령의 순방 세부 일정, 메시지 등을 도둑 맞았다니 어처구니가 없다"며 "대한민국 망신은 용산 대통령실이 다 시키고 있다"고 지적했다.
+윤 의원은 "북한뿐 아니라 어떤 해킹 세력도 가장 탐내는 해킹 대상이 대한민국의 심장 같은 대통령실일 것"이라며 "그런데 보안의 기본인 이메일을 해킹당한다는 것이 말이 되느냐"고 비판했다.
+윤 의원은 이어 "특정 개인의 실수로 넘어갈 일도 아니다"며 "국회 정보위원회를 통해 관련 정보를 요청하겠다"고 밝혔다. 그러면서 "필요하다면 국회 정보위를 소집해 철저한 진상을 파악하겠다"고 강조했다.
+윤 의원은 특히 "이미 (윤석열정부) 출범 초부터 미국 정보기관 CIA에 의해 대통령실이 도청 당했던 전적도 있다"며 "제대로 반성하고, 점검하고, 조치했다면 또 다시 이런 일이 벌어질 수 없었다"고 지적했다.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>국회 정보위원회 야당 간사인 윤건영 민주당 의원은 14일 페이스북에 "이 해킹으로 대통령의 순방 세부 일정, 메시지 등을 도둑 맞았다니 어처구니가 없다"며 "대한민국 망신은 용산 대통령실이 다 시키고 있다"고 지적했다  윤 의원은 "북한뿐 아니라 어떤 해킹 세력도 가장 탐내는 해킹 대상이 대한민국의 심장 같은 대통령실일 것"이라며 "그런데 보안의 기본인 이메일을 해킹당한다는 것이 말이 되느냐"고 비판했다  윤 의원은 이어 "특정 개인의 실수로 넘어갈 일도 아니다"며 "국회 정보위원회를 통해 관련 정보를 요청하겠다"고 밝혔다  그러면서 "필요하다면 국회 정보위를 소집해 철저한 진상을 파악하겠다"고 강조했다  윤 의원은 특히 "이미 (윤석열정부) 출범 초부터 미국 정보기관 CIA에 의해 대통령실이 도청 당했던 전적도 있다"며 "제대로 반성하고, 점검하고, 조치했다면 또 다시 이런 일이 벌어질 수 없었다"고 지적했다</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>"이 해킹으로 대통령의 순방 세부 일정, 메시지 등을 도둑 맞았다니 어처구니가 없다"  "대한민국 망신은 용산 대통령실이 다 시키고 있다"  "북한뿐 아니라 어떤 해킹 세력도 가장 탐내는 해킹 대상이 대한민국의 심장 같은 대통령실일 것"  "그런데 보안의 기본인 이메일을 해킹당한다는 것이 말이 되느냐"  "특정 개인의 실수로 넘어갈 일도 아니다"  "국회 정보위원회를 통해 관련 정보를 요청하겠다"  "필요하다면 국회 정보위를 소집해 철저한 진상을 파악하겠다"  "이미 (윤석열정부) 출범 초부터 미국 정보기관 CIA에 의해 대통령실이 도청 당했던 전적도 있다"  "제대로 반성하고, 점검하고, 조치했다면 또 다시 이런 일이 벌어질 수 없었다"</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>https://www.kmib.co.kr/article/view.asp?arcid=0019162850&amp;code=61111211&amp;cp=kd</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>20240307</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>조선일보</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>간첩 누가 잡나... 與 “다시 국정원” 野 “경찰”</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>한 위원장은 또 "이대로라면 통진당의 후신, 간첩 전력자와 그 관련자들이 이번 국회에 이 대표의 신원 보증을 받아서 입성하게 된다"며 "국회엔 자료 요구권이 있다. (이들이) 국정원 등의 핵심 자료를 열람·파악·추궁할 수 있다. 대단히 심각한 문제"라고 했다. 과거 통진당 이석기 전 의원은 국방부에 군사기밀 수십 건을 요구해 논란을 빚었다. 민주당은 통진당 후신 격인 진보당과도 위성 정당 연대를 했고, 진보당 비례 대표 후보 3명을 당선권에 배치하기로 했다.
 이에 대해 민주당 정보위 간사인 윤건영 의원은 "대공 수사권 이전되고 시행된 지 이제 두 달 지나 법안에 잉크도 안 말랐다"며 "(법안) 준비 과정에도 3~4년이 걸렸는데 그걸 자기 마음대로 하겠다는 게 어디 있나"라고 했다. 그러면서 "국가 안보를 너무 정치로만 보는 것 아닌가"라며 "아무리 유불리를 따져서 말한다지만 당 대표라는 사람이 그렇게 말하는 건 과하다"고 했다. 여당이 총선을 앞두고 야당에 대한 ‘종북 프레임’을 강화하기 위해 대공 수사권 문제를 꺼냈다는 것이다. 또 다른 민주당 관계자는 "당시 대공 수사권 이전은 국정원의 불법 도·감청이나 무리한 간첩 수사의 부작용 등이 드러나면서 시작됐던 것"이라며 "그런 맥락은 아예 무시하고, 선거를 앞두고 무조건적인 색깔론만 펴고 있다"고 했다.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>이에 대해 민주당 정보위 간사인 윤건영 의원은 "대공 수사권 이전되고 시행된 지 이제 두 달 지나 법안에 잉크도 안 말랐다"며 "(법안) 준비 과정에도 3~4년이 걸렸는데 그걸 자기 마음대로 하겠다는 게 어디 있나"라고 했다</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>"대공 수사권 이전되고 시행된 지 이제 두 달 지나 법안에 잉크도 안 말랐다"  "(법안) 준비 과정에도 3~4년이 걸렸는데 그걸 자기 마음대로 하겠다는 게 어디 있나"</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>이에 대해 민주당 정보위 간사인 윤건영 의원은 "대공 수사권 이전되고 시행된 지 이제 두 달 지나 법안에 잉크도 안 말랐다"며 "(법안) 준비 과정에도 3~4년이 걸렸는데 그걸 자기 마음대로 하겠다는 게 어디 있나"라고 했다  그러면서 "국가 안보를 너무 정치로만 보는 것 아닌가"라며 "아무리 유불리를 따져서 말한다지만 당 대표라는 사람이 그렇게 말하는 건 과하다"고 했다</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>"대공 수사권 이전되고 시행된 지 이제 두 달 지나 법안에 잉크도 안 말랐다"  "(법안) 준비 과정에도 3~4년이 걸렸는데 그걸 자기 마음대로 하겠다는 게 어디 있나"  "국가 안보를 너무 정치로만 보는 것 아닌가"  "아무리 유불리를 따져서 말한다지만 당 대표라는 사람이 그렇게 말하는 건 과하다"</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>https://www.chosun.com/politics/election2024/2024/03/07/P3YJRBVMFZHOXESDE4CZ3JKDNI/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>20240316</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>윤건영</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>세계일보</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>野 강타한 '양문석 막말 파동'… '文 복심' 윤건영 "盧 대통령님 죄송합니다"</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>더불어민주당 내 친명(친이재명)계인 양문석 예비후보(경기 안산갑)가 과거 노무현 전 대통령을 가리켜 ‘불량품’이라고 한 데 이어 ‘매국노’로 지칭한 사실이 추가로 알려지자 당내에선 양 예비후보의 경기 안산갑 공천을 취소해야 한다는 주장이 힘을 얻고 있다. 이재명 대표는 "표현의 자유"라고 양 예비후보를 옹호하며 ‘버티기’에 나섰다.
-문재인 전 대통령의 ‘복심’ 윤건영 의원은 16일 사회관계망서비스(SNS)에 "노무현 대통령님, 죄송하다"라며 "대통령님을 ‘매국노’라고 부른 사람이 ‘민주당’의 후보라고 한다"라고 개탄을 금치 못했다.</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>문재인 전 대통령의 ‘복심’ 윤건영 의원은 16일 사회관계망서비스(SNS)에 "노무현 대통령님, 죄송하다"라며 "대통령님을 ‘매국노’라고 부른 사람이 ‘민주당’의 후보라고 한다"라고 개탄을 금치 못했다</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>"노무현 대통령님, 죄송하다"  "대통령님을 ‘매국노’라고 부른 사람이 ‘민주당’의 후보라고 한다"</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+문재인 전 대통령의 ‘복심’ 윤건영 의원은 16일 사회관계망서비스(SNS)에 "노무현 대통령님, 죄송하다"라며 "대통령님을 ‘매국노’라고 부른 사람이 ‘민주당’의 후보라고 한다"라고 개탄을 금치 못했다.
+윤 의원은 "당사에는 대통령님 사진을 걸어두고, 당의 후보는 대통령님을 매국노라고 하는 이 괴이한 상황을 어찌 국민들께 말씀 드려나 하나"라며 "지난 일이니 잊어야 하나. 저는 잊지 못하겠다. 그리고 속이 협량한 탓인지는 몰라도 받아들이지도 못하겠다"라고 했다.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>문재인 전 대통령의 ‘복심’ 윤건영 의원은 16일 사회관계망서비스(SNS)에 "노무현 대통령님, 죄송하다"라며 "대통령님을 ‘매국노’라고 부른 사람이 ‘민주당’의 후보라고 한다"라고 개탄을 금치 못했다  윤 의원은 "당사에는 대통령님 사진을 걸어두고, 당의 후보는 대통령님을 매국노라고 하는 이 괴이한 상황을 어찌 국민들께 말씀 드려나 하나"라며 "지난 일이니 잊어야 하나. 저는 잊지 못하겠다. 그리고 속이 협량한 탓인지는 몰라도 받아들이지도 못하겠다"라고 했다</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>"노무현 대통령님, 죄송하다"  "대통령님을 ‘매국노’라고 부른 사람이 ‘민주당’의 후보라고 한다"  "당사에는 대통령님 사진을 걸어두고, 당의 후보는 대통령님을 매국노라고 하는 이 괴이한 상황을 어찌 국민들께 말씀 드려나 하나"  "지난 일이니 잊어야 하나. 저는 잊지 못하겠다. 그리고 속이 협량한 탓인지는 몰라도 받아들이지도 못하겠다"</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>http://www.segye.com/content/html/2024/03/16/20240316506405.html</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20240316</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>윤건영</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>野 강타한 '양문석 막말 파동'… '文 복심' 윤건영 "盧 대통령님 죄송합니다"</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>윤 의원은 "당사에는 대통령님 사진을 걸어두고, 당의 후보는 대통령님을 매국노라고 하는 이 괴이한 상황을 어찌 국민들께 말씀 드려나 하나"라며 "지난 일이니 잊어야 하나. 저는 잊지 못하겠다. 그리고 속이 협량한 탓인지는 몰라도 받아들이지도 못하겠다"라고 했다.
+윤 의원은 당 지도부에 "부디 민주당의 가치와 명예를 지켜주기 바란다. 결단을 촉구한다"라고 했다.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>윤 의원은 당 지도부에 "부디 민주당의 가치와 명예를 지켜주기 바란다. 결단을 촉구한다"라고 했다</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>"부디 민주당의 가치와 명예를 지켜주기 바란다. 결단을 촉구한다"</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>http://www.segye.com/content/html/2024/03/16/20240316506405.html</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input_AI변환260114.xlsx
+++ b/input_AI변환260114.xlsx
@@ -510,11 +510,7 @@
           <t>https://www.joongang.co.kr/article/25192381</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -734,11 +730,7 @@
           <t>https://www.donga.com/news/Politics/article/all/20230914/121176017/2</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -826,11 +818,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2023091401070530173001</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -874,11 +862,7 @@
           <t>http://www.segye.com/content/html/2023/09/14/20230914515930.html</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -922,11 +906,7 @@
           <t>https://www.chosun.com/politics/politics_general/2023/09/19/CWLD5N7KYVDUXOS53DTKYE2Z7I/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1058,11 +1038,7 @@
           <t>https://www.chosun.com/politics/politics_general/2023/09/20/OYUE2VTVAFDX5BQXC2KM6UXVPE/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1150,11 +1126,7 @@
           <t>https://www.chosun.com/politics/politics_general/2023/09/20/OYUE2VTVAFDX5BQXC2KM6UXVPE/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1197,11 +1169,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2023092001039910120008</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1465,11 +1433,7 @@
           <t>http://www.segye.com/content/html/2023/09/30/20230930510099.html</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1557,11 +1521,7 @@
           <t>http://www.segye.com/content/html/2023/10/11/20231011524822.html</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1605,11 +1565,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2023101201070330288001</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1653,11 +1609,7 @@
           <t>https://news.kmib.co.kr/article/view.asp?arcid=0018757733&amp;code=61111111&amp;cp=kd</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1701,11 +1653,7 @@
           <t>https://news.kmib.co.kr/article/view.asp?arcid=0924325069&amp;code=11151100</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1749,11 +1697,7 @@
           <t>https://www.joongang.co.kr/article/25204126</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1797,11 +1741,7 @@
           <t>https://www.donga.com/news/Politics/article/all/20231102/121981423/1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1934,11 +1874,7 @@
           <t>http://www.segye.com/content/html/2023/11/04/20231104509139.html</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2070,11 +2006,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2023112201070330173001</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2118,11 +2050,7 @@
           <t>https://www.joongang.co.kr/article/25209259</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2254,11 +2182,7 @@
           <t>http://www.segye.com/content/html/2023/11/23/20231123510098.html</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2302,11 +2226,7 @@
           <t>https://www.joongang.co.kr/article/25209567</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2394,11 +2314,7 @@
           <t>http://www.segye.com/content/html/2023/11/23/20231123515830.html</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2442,11 +2358,7 @@
           <t>https://www.chosun.com/politics/north_korea/2023/11/24/RY6IUMNKTBGTZL7NQRZQRXULWQ/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2490,11 +2402,7 @@
           <t>http://www.segye.com/content/html/2023/11/26/20231126509917.html</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2581,11 +2489,7 @@
           <t>https://www.joongang.co.kr/article/25210309</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2632,11 +2536,7 @@
           <t>https://www.joongang.co.kr/article/25210309</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2680,11 +2580,7 @@
           <t>https://www.joongang.co.kr/article/25211754</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2728,11 +2624,7 @@
           <t>https://www.chosun.com/politics/assembly/2023/12/01/DBUMBEC3I5GW3FC72BFG7XS44E/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2821,11 +2713,7 @@
           <t>https://news.kmib.co.kr/article/view.asp?arcid=0018970737&amp;code=61111111&amp;cp=kd</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2913,11 +2801,7 @@
           <t>https://www.joongang.co.kr/article/25216716</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2961,11 +2845,7 @@
           <t>https://www.joongang.co.kr/article/25217741</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3053,11 +2933,7 @@
           <t>https://news.kmib.co.kr/article/view.asp?arcid=0019056865&amp;code=61111511&amp;cp=kd</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3145,11 +3021,7 @@
           <t>http://www.segye.com/content/html/2024/01/13/20240113503290.html</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3193,11 +3065,7 @@
           <t>http://www.segye.com/content/html/2024/01/17/20240117514377.html</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3241,11 +3109,7 @@
           <t>http://www.segye.com/content/html/2024/01/17/20240117514377.html</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3290,11 +3154,7 @@
           <t>https://www.joongang.co.kr/article/25222684</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3338,11 +3198,7 @@
           <t>http://www.segye.com/content/html/2024/01/18/20240118515637.html</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3386,11 +3242,7 @@
           <t>http://www.segye.com/content/html/2024/01/21/20240121508853.html</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3435,11 +3287,7 @@
           <t>http://www.segye.com/content/html/2024/01/21/20240121505322.html</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3483,11 +3331,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2024012201039910272006</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3531,11 +3375,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2024013001070630173001</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3843,11 +3683,7 @@
           <t>https://www.joongang.co.kr/article/25227792</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3935,11 +3771,7 @@
           <t>http://www.segye.com/content/html/2024/02/08/20240208510084.html</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4029,11 +3861,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2024020801039910021003</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4122,11 +3950,7 @@
           <t>http://www.munhwa.com/news/view.html?no=2024020801039910021003</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4170,11 +3994,7 @@
           <t>https://www.donga.com/news/Politics/article/all/20240208/123457346/1</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4218,11 +4038,7 @@
           <t>https://www.kmib.co.kr/article/view.asp?arcid=0924343558&amp;code=11131100</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4269,11 +4085,7 @@
           <t>https://www.kmib.co.kr/article/view.asp?arcid=0019162850&amp;code=61111211&amp;cp=kd</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4317,11 +4129,7 @@
           <t>https://www.chosun.com/politics/election2024/2024/03/07/P3YJRBVMFZHOXESDE4CZ3JKDNI/?utm_source=bigkinds&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4366,11 +4174,7 @@
           <t>http://www.segye.com/content/html/2024/03/16/20240316506405.html</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
